--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9851109109193029</v>
+      </c>
+      <c r="D2">
+        <v>1.005562930730018</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9936307555917497</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.036527502594232</v>
+      </c>
+      <c r="J2">
+        <v>1.007746258634473</v>
+      </c>
+      <c r="K2">
+        <v>1.016945305336264</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>1.005179543133794</v>
+      </c>
+      <c r="N2">
+        <v>1.009177373911846</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.992447674829695</v>
+      </c>
+      <c r="D3">
+        <v>1.011052398347051</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>1.001218756703095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.038604924187094</v>
+      </c>
+      <c r="J3">
+        <v>1.013146362848663</v>
+      </c>
+      <c r="K3">
+        <v>1.021545788184345</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.011836067025562</v>
+      </c>
+      <c r="N3">
+        <v>1.01458514689342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9970459247080874</v>
+      </c>
+      <c r="D4">
+        <v>1.014495117023966</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>1.005979777613449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.039893828559013</v>
+      </c>
+      <c r="J4">
+        <v>1.016525499086588</v>
+      </c>
+      <c r="K4">
+        <v>1.024421690752459</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.016006563787264</v>
+      </c>
+      <c r="N4">
+        <v>1.017969081892396</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9989453733711079</v>
+      </c>
+      <c r="D5">
+        <v>1.015917655665091</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>1.007947719103307</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.040423042644631</v>
+      </c>
+      <c r="J5">
+        <v>1.017920015486638</v>
+      </c>
+      <c r="K5">
+        <v>1.025607809834103</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>1.017728941077406</v>
+      </c>
+      <c r="N5">
+        <v>1.019365578665687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9992623817322659</v>
+      </c>
+      <c r="D6">
+        <v>1.01615509136188</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>1.008276231884063</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.040511175312337</v>
+      </c>
+      <c r="J6">
+        <v>1.018152672692613</v>
+      </c>
+      <c r="K6">
+        <v>1.025805655295451</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>1.01801637412171</v>
+      </c>
+      <c r="N6">
+        <v>1.019598566271581</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9970714349059254</v>
+      </c>
+      <c r="D7">
+        <v>1.014514220669019</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>1.006006202745309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.039900948855183</v>
+      </c>
+      <c r="J7">
+        <v>1.016544233267247</v>
+      </c>
+      <c r="K7">
+        <v>1.024437628183508</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>1.01602969738813</v>
+      </c>
+      <c r="N7">
+        <v>1.01798784267774</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9876225729983235</v>
+      </c>
+      <c r="D8">
+        <v>1.007441639171995</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>0.9962272915910519</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.037241413443994</v>
+      </c>
+      <c r="J8">
+        <v>1.009596013630061</v>
+      </c>
+      <c r="K8">
+        <v>1.018521743497901</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>1.007458610295684</v>
+      </c>
+      <c r="N8">
+        <v>1.011029755771697</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9697276942042627</v>
+      </c>
+      <c r="D9">
+        <v>0.9940717065779084</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.9777516669789093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.032100983109127</v>
+      </c>
+      <c r="J9">
+        <v>0.9963966776412128</v>
+      </c>
+      <c r="K9">
+        <v>1.007261704092024</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.9912163252253564</v>
+      </c>
+      <c r="N9">
+        <v>0.9978116752117597</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9567975355841455</v>
+      </c>
+      <c r="D10">
+        <v>0.9844378674713217</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
+      </c>
+      <c r="F10">
+        <v>0.9644338389553537</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.02832075864028</v>
+      </c>
+      <c r="J10">
+        <v>0.9868366586384938</v>
+      </c>
+      <c r="K10">
+        <v>0.9990939030695563</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
+      </c>
+      <c r="M10">
+        <v>0.9794763815117071</v>
+      </c>
+      <c r="N10">
+        <v>0.9882380798855072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9509178808901014</v>
+      </c>
+      <c r="D11">
+        <v>0.9800660670506947</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
+      </c>
+      <c r="F11">
+        <v>0.9583859361780891</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.026587336442948</v>
+      </c>
+      <c r="J11">
+        <v>0.9824853484386591</v>
+      </c>
+      <c r="K11">
+        <v>0.9953739603467361</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9741377484915956</v>
+      </c>
+      <c r="N11">
+        <v>0.9838805903260864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.948687368805225</v>
+      </c>
+      <c r="D12">
+        <v>0.9784091685530039</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
+      </c>
+      <c r="F12">
+        <v>0.9560928468694221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.025927685960784</v>
+      </c>
+      <c r="J12">
+        <v>0.980834130077711</v>
+      </c>
+      <c r="K12">
+        <v>0.9939620437869222</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
+      </c>
+      <c r="M12">
+        <v>0.9721125198537861</v>
+      </c>
+      <c r="N12">
+        <v>0.9822270270456684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9491680045052472</v>
+      </c>
+      <c r="D13">
+        <v>0.9787661245706502</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9565869097438729</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.026069919761324</v>
+      </c>
+      <c r="J13">
+        <v>0.9811899587706228</v>
+      </c>
+      <c r="K13">
+        <v>0.9942663161484735</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
+      </c>
+      <c r="M13">
+        <v>0.972548917552657</v>
+      </c>
+      <c r="N13">
+        <v>0.9825833610561384</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9507344830733987</v>
+      </c>
+      <c r="D14">
+        <v>0.9799297992567926</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
+      </c>
+      <c r="F14">
+        <v>0.9581973675393558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.026533139453966</v>
+      </c>
+      <c r="J14">
+        <v>0.9823495908778908</v>
+      </c>
+      <c r="K14">
+        <v>0.995257882816265</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9739712282863309</v>
+      </c>
+      <c r="N14">
+        <v>0.9837446399740103</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9516933331972023</v>
+      </c>
+      <c r="D15">
+        <v>0.9806423079228225</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717474</v>
+      </c>
+      <c r="F15">
+        <v>0.9591833030258311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.026816412178765</v>
+      </c>
+      <c r="J15">
+        <v>0.9830593461340051</v>
+      </c>
+      <c r="K15">
+        <v>0.9958647374558949</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.9748418400941138</v>
+      </c>
+      <c r="N15">
+        <v>0.9844554031639986</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9571814746620732</v>
+      </c>
+      <c r="D16">
+        <v>0.9847235491305655</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
+      </c>
+      <c r="F16">
+        <v>0.9648289339484486</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.028433661106435</v>
+      </c>
+      <c r="J16">
+        <v>0.987120721791086</v>
+      </c>
+      <c r="K16">
+        <v>0.9993367063454779</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175714</v>
+      </c>
+      <c r="M16">
+        <v>0.9798249937350428</v>
+      </c>
+      <c r="N16">
+        <v>0.9885225464403586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9605459738805624</v>
+      </c>
+      <c r="D17">
+        <v>0.9872280409153005</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
+      </c>
+      <c r="F17">
+        <v>0.9682921024468683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.029421422452277</v>
+      </c>
+      <c r="J17">
+        <v>0.9896095448317039</v>
+      </c>
+      <c r="K17">
+        <v>1.001463777111989</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>0.9828799052788432</v>
+      </c>
+      <c r="N17">
+        <v>0.9910149038951661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9624816605376146</v>
+      </c>
+      <c r="D18">
+        <v>0.9886697620732862</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215686</v>
+      </c>
+      <c r="F18">
+        <v>0.9702853058793977</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.029988345171595</v>
+      </c>
+      <c r="J18">
+        <v>0.9910410352460776</v>
+      </c>
+      <c r="K18">
+        <v>1.002686978851241</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0.9846374543606344</v>
+      </c>
+      <c r="N18">
+        <v>0.9924484271901225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.963137261584978</v>
+      </c>
+      <c r="D19">
+        <v>0.9891581932740342</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
+      </c>
+      <c r="F19">
+        <v>0.9709605133780537</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.030180122810454</v>
+      </c>
+      <c r="J19">
+        <v>0.9915257986377481</v>
+      </c>
+      <c r="K19">
+        <v>1.003101167790777</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816589</v>
+      </c>
+      <c r="M19">
+        <v>0.9852327157567129</v>
+      </c>
+      <c r="N19">
+        <v>0.9929338790014124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9601877932861218</v>
+      </c>
+      <c r="D20">
+        <v>0.9869613287748044</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
+      </c>
+      <c r="F20">
+        <v>0.9679233393994576</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.029316407491129</v>
+      </c>
+      <c r="J20">
+        <v>0.9893446280767093</v>
+      </c>
+      <c r="K20">
+        <v>1.00123738872906</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057445</v>
+      </c>
+      <c r="M20">
+        <v>0.9825546849914412</v>
+      </c>
+      <c r="N20">
+        <v>0.9907496109279931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.950274517287531</v>
+      </c>
+      <c r="D21">
+        <v>0.9795880631008791</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.9577244534502094</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.026397179553398</v>
+      </c>
+      <c r="J21">
+        <v>0.9820091003003635</v>
+      </c>
+      <c r="K21">
+        <v>0.9949667468953699</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9488714019981064</v>
+      </c>
+      <c r="M21">
+        <v>0.9735535928358353</v>
+      </c>
+      <c r="N21">
+        <v>0.9834036658608083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9437696928741586</v>
+      </c>
+      <c r="D22">
+        <v>0.9747593996056052</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651159</v>
+      </c>
+      <c r="F22">
+        <v>0.9510395641789089</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.024469674002243</v>
+      </c>
+      <c r="J22">
+        <v>0.9771928629878182</v>
+      </c>
+      <c r="K22">
+        <v>0.9908480271000585</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572513</v>
+      </c>
+      <c r="M22">
+        <v>0.9676476000262628</v>
+      </c>
+      <c r="N22">
+        <v>0.9785805889388491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9472454306567182</v>
+      </c>
+      <c r="D23">
+        <v>0.977338531756104</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963312</v>
+      </c>
+      <c r="F23">
+        <v>0.9546108130499587</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.025500683306216</v>
+      </c>
+      <c r="J23">
+        <v>0.9797665577664721</v>
+      </c>
+      <c r="K23">
+        <v>0.9930491158553354</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285315</v>
+      </c>
+      <c r="M23">
+        <v>0.9708033104853158</v>
+      </c>
+      <c r="N23">
+        <v>0.9811579386592955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.960349722080402</v>
+      </c>
+      <c r="D24">
+        <v>0.9870819033391497</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011821</v>
+      </c>
+      <c r="F24">
+        <v>0.9680900500562322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.029363887635485</v>
+      </c>
+      <c r="J24">
+        <v>0.989464394741034</v>
+      </c>
+      <c r="K24">
+        <v>1.001339737726183</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442539</v>
+      </c>
+      <c r="M24">
+        <v>0.9827017129371758</v>
+      </c>
+      <c r="N24">
+        <v>0.9908695476747186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9745170473316985</v>
+      </c>
+      <c r="D25">
+        <v>0.9976462336686913</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9826911626616436</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.033488297623669</v>
+      </c>
+      <c r="J25">
+        <v>0.9999335378109718</v>
+      </c>
+      <c r="K25">
+        <v>1.010281199049488</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.995564253379284</v>
+      </c>
+      <c r="N25">
+        <v>1.001353558128643</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9851109109193029</v>
+        <v>1.037571154219929</v>
       </c>
       <c r="D2">
-        <v>1.005562930730018</v>
+        <v>1.050264842286849</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.041958502180313</v>
       </c>
       <c r="F2">
-        <v>0.9936307555917497</v>
+        <v>1.055580235413878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036527502594232</v>
+        <v>1.060164323668392</v>
       </c>
       <c r="J2">
-        <v>1.007746258634473</v>
+        <v>1.058683385896271</v>
       </c>
       <c r="K2">
-        <v>1.016945305336264</v>
+        <v>1.06106565867997</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.052862672326853</v>
       </c>
       <c r="M2">
-        <v>1.005179543133794</v>
+        <v>1.06631597447516</v>
       </c>
       <c r="N2">
-        <v>1.009177373911846</v>
+        <v>1.060186837736925</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.992447674829695</v>
+        <v>1.042953607043217</v>
       </c>
       <c r="D3">
-        <v>1.011052398347051</v>
+        <v>1.054354015597021</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.046429534604635</v>
       </c>
       <c r="F3">
-        <v>1.001218756703095</v>
+        <v>1.060169271993755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038604924187094</v>
+        <v>1.062036301139853</v>
       </c>
       <c r="J3">
-        <v>1.013146362848663</v>
+        <v>1.062338070644371</v>
       </c>
       <c r="K3">
-        <v>1.021545788184345</v>
+        <v>1.064335637228947</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.056500904724372</v>
       </c>
       <c r="M3">
-        <v>1.011836067025562</v>
+        <v>1.070086082825096</v>
       </c>
       <c r="N3">
-        <v>1.01458514689342</v>
+        <v>1.063846712556566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970459247080874</v>
+        <v>1.046358472921891</v>
       </c>
       <c r="D4">
-        <v>1.014495117023966</v>
+        <v>1.056944308867314</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.049268614505237</v>
       </c>
       <c r="F4">
-        <v>1.005979777613449</v>
+        <v>1.063080028072031</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039893828559013</v>
+        <v>1.063211930911579</v>
       </c>
       <c r="J4">
-        <v>1.016525499086588</v>
+        <v>1.064646326617376</v>
       </c>
       <c r="K4">
-        <v>1.024421690752459</v>
+        <v>1.066400812972403</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.058806664581839</v>
       </c>
       <c r="M4">
-        <v>1.016006563787264</v>
+        <v>1.072472380924801</v>
       </c>
       <c r="N4">
-        <v>1.017969081892396</v>
+        <v>1.066158246517813</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9989453733711079</v>
+        <v>1.047771967330475</v>
       </c>
       <c r="D5">
-        <v>1.015917655665091</v>
+        <v>1.058020430879017</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.050449742445157</v>
       </c>
       <c r="F5">
-        <v>1.007947719103307</v>
+        <v>1.064290205101769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040423042644631</v>
+        <v>1.063697888022318</v>
       </c>
       <c r="J5">
-        <v>1.017920015486638</v>
+        <v>1.065603659453213</v>
       </c>
       <c r="K5">
-        <v>1.025607809834103</v>
+        <v>1.067257293230832</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.059764839380185</v>
       </c>
       <c r="M5">
-        <v>1.017728941077406</v>
+        <v>1.073463302103624</v>
       </c>
       <c r="N5">
-        <v>1.019365578665687</v>
+        <v>1.067116938876084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992623817322659</v>
+        <v>1.048008269899336</v>
       </c>
       <c r="D6">
-        <v>1.01615509136188</v>
+        <v>1.058200377507293</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.050647344707285</v>
       </c>
       <c r="F6">
-        <v>1.008276231884063</v>
+        <v>1.064492622320846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040511175312337</v>
+        <v>1.063779004259156</v>
       </c>
       <c r="J6">
-        <v>1.018152672692613</v>
+        <v>1.065763647716635</v>
       </c>
       <c r="K6">
-        <v>1.025805655295451</v>
+        <v>1.067400424642296</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.059925078263817</v>
       </c>
       <c r="M6">
-        <v>1.01801637412171</v>
+        <v>1.073628975047007</v>
       </c>
       <c r="N6">
-        <v>1.019598566271581</v>
+        <v>1.067277154341192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9970714349059254</v>
+        <v>1.046377429523092</v>
       </c>
       <c r="D7">
-        <v>1.014514220669019</v>
+        <v>1.056958737872672</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.049284444957522</v>
       </c>
       <c r="F7">
-        <v>1.006006202745309</v>
+        <v>1.063096250890307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039900948855183</v>
+        <v>1.063218456485135</v>
       </c>
       <c r="J7">
-        <v>1.016544233267247</v>
+        <v>1.064659169232184</v>
       </c>
       <c r="K7">
-        <v>1.024437628183508</v>
+        <v>1.066412302811</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.058819511091239</v>
       </c>
       <c r="M7">
-        <v>1.01602969738813</v>
+        <v>1.072485669316119</v>
       </c>
       <c r="N7">
-        <v>1.01798784267774</v>
+        <v>1.066171107370607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9876225729983235</v>
+        <v>1.039406781734311</v>
       </c>
       <c r="D8">
-        <v>1.007441639171995</v>
+        <v>1.051658630138345</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.043480995084712</v>
       </c>
       <c r="F8">
-        <v>0.9962272915910519</v>
+        <v>1.057143600503015</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037241413443994</v>
+        <v>1.060804513503924</v>
       </c>
       <c r="J8">
-        <v>1.009596013630061</v>
+        <v>1.059930517529491</v>
       </c>
       <c r="K8">
-        <v>1.018521743497901</v>
+        <v>1.062181527021378</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.054102519043666</v>
       </c>
       <c r="M8">
-        <v>1.007458610295684</v>
+        <v>1.067601404322843</v>
       </c>
       <c r="N8">
-        <v>1.011029755771697</v>
+        <v>1.061435740440112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9697276942042627</v>
+        <v>1.026490731920396</v>
       </c>
       <c r="D9">
-        <v>0.9940717065779084</v>
+        <v>1.041869208454764</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.032817221918728</v>
       </c>
       <c r="F9">
-        <v>0.9777516669789093</v>
+        <v>1.04617927594851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032100983109127</v>
+        <v>1.056265179429476</v>
       </c>
       <c r="J9">
-        <v>0.9963966776412128</v>
+        <v>1.051141505989626</v>
       </c>
       <c r="K9">
-        <v>1.007261704092024</v>
+        <v>1.054317642061634</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.045399391273546</v>
       </c>
       <c r="M9">
-        <v>0.9912163252253564</v>
+        <v>1.058565062669906</v>
       </c>
       <c r="N9">
-        <v>0.9978116752117597</v>
+        <v>1.052634247495747</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567975355841455</v>
+        <v>1.017400347767024</v>
       </c>
       <c r="D10">
-        <v>0.9844378674713217</v>
+        <v>1.035005032767006</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.025378091058314</v>
       </c>
       <c r="F10">
-        <v>0.9644338389553537</v>
+        <v>1.038511730181157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02832075864028</v>
+        <v>1.053028073458006</v>
       </c>
       <c r="J10">
-        <v>0.9868366586384938</v>
+        <v>1.044940209798355</v>
       </c>
       <c r="K10">
-        <v>0.9990939030695563</v>
+        <v>1.04876977128265</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.039303771253172</v>
       </c>
       <c r="M10">
-        <v>0.9794763815117071</v>
+        <v>1.052218797453409</v>
       </c>
       <c r="N10">
-        <v>0.9882380798855072</v>
+        <v>1.046424144752585</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9509178808901014</v>
+        <v>1.01333697769572</v>
       </c>
       <c r="D11">
-        <v>0.9800660670506947</v>
+        <v>1.031943944365287</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.022069822077608</v>
       </c>
       <c r="F11">
-        <v>0.9583859361780891</v>
+        <v>1.03509721590571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026587336442948</v>
+        <v>1.051571722614137</v>
       </c>
       <c r="J11">
-        <v>0.9824853484386591</v>
+        <v>1.042165258863269</v>
       </c>
       <c r="K11">
-        <v>0.9953739603467361</v>
+        <v>1.046287581630704</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.036587199590152</v>
       </c>
       <c r="M11">
-        <v>0.9741377484915956</v>
+        <v>1.049386272795517</v>
       </c>
       <c r="N11">
-        <v>0.9838805903260864</v>
+        <v>1.043645253068881</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.948687368805225</v>
+        <v>1.011807305510891</v>
       </c>
       <c r="D12">
-        <v>0.9784091685530039</v>
+        <v>1.030792761860261</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.020827085293764</v>
       </c>
       <c r="F12">
-        <v>0.9560928468694221</v>
+        <v>1.033813847070036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025927685960784</v>
+        <v>1.051022124689385</v>
       </c>
       <c r="J12">
-        <v>0.980834130077711</v>
+        <v>1.041120230894568</v>
       </c>
       <c r="K12">
-        <v>0.9939620437869222</v>
+        <v>1.045352879430308</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.035565860746115</v>
       </c>
       <c r="M12">
-        <v>0.9721125198537861</v>
+        <v>1.048320686424943</v>
       </c>
       <c r="N12">
-        <v>0.9822270270456684</v>
+        <v>1.042598741040598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9491680045052472</v>
+        <v>1.012136367737535</v>
       </c>
       <c r="D13">
-        <v>0.9787661245706502</v>
+        <v>1.031040348793997</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.021094299296671</v>
       </c>
       <c r="F13">
-        <v>0.9565869097438729</v>
+        <v>1.034089830744225</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026069919761324</v>
+        <v>1.05114041381009</v>
       </c>
       <c r="J13">
-        <v>0.9811899587706228</v>
+        <v>1.041345053122937</v>
       </c>
       <c r="K13">
-        <v>0.9942663161484735</v>
+        <v>1.045553963063165</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.035785509012078</v>
       </c>
       <c r="M13">
-        <v>0.972548917552657</v>
+        <v>1.048549880280386</v>
       </c>
       <c r="N13">
-        <v>0.9825833610561384</v>
+        <v>1.042823882542319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9507344830733987</v>
+        <v>1.013210957360995</v>
       </c>
       <c r="D14">
-        <v>0.9799297992567926</v>
+        <v>1.031849080985255</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.02196738553752</v>
       </c>
       <c r="F14">
-        <v>0.9581973675393558</v>
+        <v>1.034991444928671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026533139453966</v>
+        <v>1.051526471643676</v>
       </c>
       <c r="J14">
-        <v>0.9823495908778908</v>
+        <v>1.042079172871937</v>
       </c>
       <c r="K14">
-        <v>0.995257882816265</v>
+        <v>1.046210582304575</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.036503030193793</v>
       </c>
       <c r="M14">
-        <v>0.9739712282863309</v>
+        <v>1.049298470284721</v>
       </c>
       <c r="N14">
-        <v>0.9837446399740103</v>
+        <v>1.043559044825567</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9516933331972023</v>
+        <v>1.013870311031762</v>
       </c>
       <c r="D15">
-        <v>0.9806423079228225</v>
+        <v>1.032345466223596</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.022503455615732</v>
       </c>
       <c r="F15">
-        <v>0.9591833030258311</v>
+        <v>1.035544935217431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026816412178765</v>
+        <v>1.051763175636102</v>
       </c>
       <c r="J15">
-        <v>0.9830593461340051</v>
+        <v>1.042529569863498</v>
       </c>
       <c r="K15">
-        <v>0.9958647374558949</v>
+        <v>1.046613441503344</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.036943469295217</v>
       </c>
       <c r="M15">
-        <v>0.9748418400941138</v>
+        <v>1.049757893931531</v>
       </c>
       <c r="N15">
-        <v>0.9844554031639986</v>
+        <v>1.044010081432517</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9571814746620732</v>
+        <v>1.017667236584708</v>
       </c>
       <c r="D16">
-        <v>0.9847235491305655</v>
+        <v>1.035206247501819</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>1.02559574715755</v>
       </c>
       <c r="F16">
-        <v>0.9648289339484486</v>
+        <v>1.038736277368164</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028433661106435</v>
+        <v>1.053123538912153</v>
       </c>
       <c r="J16">
-        <v>0.987120721791086</v>
+        <v>1.045122416115933</v>
       </c>
       <c r="K16">
-        <v>0.9993367063454779</v>
+        <v>1.048932763754305</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>1.039482378040143</v>
       </c>
       <c r="M16">
-        <v>0.9798249937350428</v>
+        <v>1.052404938092223</v>
       </c>
       <c r="N16">
-        <v>0.9885225464403586</v>
+        <v>1.046606609824035</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9605459738805624</v>
+        <v>1.020014049969365</v>
       </c>
       <c r="D17">
-        <v>0.9872280409153005</v>
+        <v>1.036976400211104</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>1.02751159069276</v>
       </c>
       <c r="F17">
-        <v>0.9682921024468683</v>
+        <v>1.040712243529975</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029421422452277</v>
+        <v>1.053961930004215</v>
       </c>
       <c r="J17">
-        <v>0.9896095448317039</v>
+        <v>1.046724264514457</v>
       </c>
       <c r="K17">
-        <v>1.001463777111989</v>
+        <v>1.050365739392887</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.041053844975186</v>
       </c>
       <c r="M17">
-        <v>0.9828799052788432</v>
+        <v>1.054042206173021</v>
       </c>
       <c r="N17">
-        <v>0.9910149038951661</v>
+        <v>1.048210733031019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9624816605376146</v>
+        <v>1.021370725814017</v>
       </c>
       <c r="D18">
-        <v>0.9886697620732862</v>
+        <v>1.038000385045153</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>1.028620726617328</v>
       </c>
       <c r="F18">
-        <v>0.9702853058793977</v>
+        <v>1.041855744455537</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029988345171595</v>
+        <v>1.054445706168683</v>
       </c>
       <c r="J18">
-        <v>0.9910410352460776</v>
+        <v>1.047649993794666</v>
       </c>
       <c r="K18">
-        <v>1.002686978851241</v>
+        <v>1.051193908323086</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.041963063115779</v>
       </c>
       <c r="M18">
-        <v>0.9846374543606344</v>
+        <v>1.054989093398859</v>
       </c>
       <c r="N18">
-        <v>0.9924484271901225</v>
+        <v>1.049137776952989</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.963137261584978</v>
+        <v>1.021831287409145</v>
       </c>
       <c r="D19">
-        <v>0.9891581932740342</v>
+        <v>1.038348116575822</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>1.028997521906842</v>
       </c>
       <c r="F19">
-        <v>0.9709605133780537</v>
+        <v>1.042244139871889</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030180122810454</v>
+        <v>1.054609784556105</v>
       </c>
       <c r="J19">
-        <v>0.9915257986377481</v>
+        <v>1.047964207895137</v>
       </c>
       <c r="K19">
-        <v>1.003101167790777</v>
+        <v>1.051475013301803</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>1.042271849439923</v>
       </c>
       <c r="M19">
-        <v>0.9852327157567129</v>
+        <v>1.055310605008338</v>
       </c>
       <c r="N19">
-        <v>0.9929338790014124</v>
+        <v>1.049452437273523</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9601877932861218</v>
+        <v>1.019763527705407</v>
       </c>
       <c r="D20">
-        <v>0.9869613287748044</v>
+        <v>1.036787365991739</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>1.027306907484054</v>
       </c>
       <c r="F20">
-        <v>0.9679233393994576</v>
+        <v>1.040501182950428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029316407491129</v>
+        <v>1.053872523910967</v>
       </c>
       <c r="J20">
-        <v>0.9893446280767093</v>
+        <v>1.046553296665365</v>
       </c>
       <c r="K20">
-        <v>1.00123738872906</v>
+        <v>1.050212792003955</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>1.040886010880093</v>
       </c>
       <c r="M20">
-        <v>0.9825546849914412</v>
+        <v>1.053867386275437</v>
       </c>
       <c r="N20">
-        <v>0.9907496109279931</v>
+        <v>1.048039522387971</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.950274517287531</v>
+        <v>1.012895089976966</v>
       </c>
       <c r="D21">
-        <v>0.9795880631008791</v>
+        <v>1.03161132716313</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.021710673942468</v>
       </c>
       <c r="F21">
-        <v>0.9577244534502094</v>
+        <v>1.034726365356099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026397179553398</v>
+        <v>1.051413029507565</v>
       </c>
       <c r="J21">
-        <v>0.9820091003003635</v>
+        <v>1.041863394101087</v>
       </c>
       <c r="K21">
-        <v>0.9949667468953699</v>
+        <v>1.046017580961205</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.036292083029722</v>
       </c>
       <c r="M21">
-        <v>0.9735535928358353</v>
+        <v>1.049078407158883</v>
       </c>
       <c r="N21">
-        <v>0.9834036658608083</v>
+        <v>1.043342959624112</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9437696928741586</v>
+        <v>1.008458161488853</v>
       </c>
       <c r="D22">
-        <v>0.9747593996056052</v>
+        <v>1.028274583048953</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>1.018111235610391</v>
       </c>
       <c r="F22">
-        <v>0.9510395641789089</v>
+        <v>1.031007850655933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024469674002243</v>
+        <v>1.049816393666093</v>
       </c>
       <c r="J22">
-        <v>0.9771928629878182</v>
+        <v>1.038831554564128</v>
       </c>
       <c r="K22">
-        <v>0.9908480271000585</v>
+        <v>1.043305980956272</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>1.033332245649952</v>
       </c>
       <c r="M22">
-        <v>0.9676476000262628</v>
+        <v>1.045989085923975</v>
       </c>
       <c r="N22">
-        <v>0.9785805889388491</v>
+        <v>1.040306814527254</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9472454306567182</v>
+        <v>1.010821936054545</v>
       </c>
       <c r="D23">
-        <v>0.977338531756104</v>
+        <v>1.0300515487425</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>1.020027320698811</v>
       </c>
       <c r="F23">
-        <v>0.9546108130499587</v>
+        <v>1.032987727694783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025500683306216</v>
+        <v>1.05066771771725</v>
       </c>
       <c r="J23">
-        <v>0.9797665577664721</v>
+        <v>1.04044695423814</v>
       </c>
       <c r="K23">
-        <v>0.9930491158553354</v>
+        <v>1.044750705229311</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>1.034908331386064</v>
       </c>
       <c r="M23">
-        <v>0.9708033104853158</v>
+        <v>1.047634484909428</v>
       </c>
       <c r="N23">
-        <v>0.9811579386592955</v>
+        <v>1.041924508254091</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.960349722080402</v>
+        <v>1.019876765482942</v>
       </c>
       <c r="D24">
-        <v>0.9870819033391497</v>
+        <v>1.036872808674189</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.027399420738963</v>
       </c>
       <c r="F24">
-        <v>0.9680900500562322</v>
+        <v>1.040596580033896</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029363887635485</v>
+        <v>1.053912938847252</v>
       </c>
       <c r="J24">
-        <v>0.989464394741034</v>
+        <v>1.046630576200172</v>
       </c>
       <c r="K24">
-        <v>1.001339737726183</v>
+        <v>1.050281925970554</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>1.04096187067575</v>
       </c>
       <c r="M24">
-        <v>0.9827017129371758</v>
+        <v>1.053946404848966</v>
       </c>
       <c r="N24">
-        <v>0.9908695476747186</v>
+        <v>1.048116911668581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9745170473316985</v>
+        <v>1.029910164925277</v>
       </c>
       <c r="D25">
-        <v>0.9976462336686913</v>
+        <v>1.044456814063429</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.035629430984968</v>
       </c>
       <c r="F25">
-        <v>0.9826911626616436</v>
+        <v>1.0490739129524</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033488297623669</v>
+        <v>1.057474410231049</v>
       </c>
       <c r="J25">
-        <v>0.9999335378109718</v>
+        <v>1.053471221644975</v>
       </c>
       <c r="K25">
-        <v>1.010281199049488</v>
+        <v>1.056402080269612</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.047698724071932</v>
       </c>
       <c r="M25">
-        <v>0.995564253379284</v>
+        <v>1.06095535549469</v>
       </c>
       <c r="N25">
-        <v>1.001353558128643</v>
+        <v>1.054967271614549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037571154219929</v>
+        <v>1.06469664608609</v>
       </c>
       <c r="D2">
-        <v>1.050264842286849</v>
+        <v>1.066648690080083</v>
       </c>
       <c r="E2">
-        <v>1.041958502180313</v>
+        <v>1.068170168690908</v>
       </c>
       <c r="F2">
-        <v>1.055580235413878</v>
+        <v>1.078445664253329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060164323668392</v>
+        <v>1.053419792298343</v>
       </c>
       <c r="J2">
-        <v>1.058683385896271</v>
+        <v>1.069655561025508</v>
       </c>
       <c r="K2">
-        <v>1.06106565867997</v>
+        <v>1.069358672877275</v>
       </c>
       <c r="L2">
-        <v>1.052862672326853</v>
+        <v>1.070876068790684</v>
       </c>
       <c r="M2">
-        <v>1.06631597447516</v>
+        <v>1.081124317237727</v>
       </c>
       <c r="N2">
-        <v>1.060186837736925</v>
+        <v>1.071174594613372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042953607043217</v>
+        <v>1.065815776577428</v>
       </c>
       <c r="D3">
-        <v>1.054354015597021</v>
+        <v>1.067520476643631</v>
       </c>
       <c r="E3">
-        <v>1.046429534604635</v>
+        <v>1.069177957709172</v>
       </c>
       <c r="F3">
-        <v>1.060169271993755</v>
+        <v>1.079458962644476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062036301139853</v>
+        <v>1.053752420509926</v>
       </c>
       <c r="J3">
-        <v>1.062338070644371</v>
+        <v>1.070429201011841</v>
       </c>
       <c r="K3">
-        <v>1.064335637228947</v>
+        <v>1.070045952391182</v>
       </c>
       <c r="L3">
-        <v>1.056500904724372</v>
+        <v>1.071699307232123</v>
       </c>
       <c r="M3">
-        <v>1.070086082825096</v>
+        <v>1.081955022508909</v>
       </c>
       <c r="N3">
-        <v>1.063846712556566</v>
+        <v>1.071949333257223</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.046358472921891</v>
+        <v>1.066540024701919</v>
       </c>
       <c r="D4">
-        <v>1.056944308867314</v>
+        <v>1.068084695376896</v>
       </c>
       <c r="E4">
-        <v>1.049268614505237</v>
+        <v>1.069830941647321</v>
       </c>
       <c r="F4">
-        <v>1.063080028072031</v>
+        <v>1.080115232197489</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063211930911579</v>
+        <v>1.053966563001247</v>
       </c>
       <c r="J4">
-        <v>1.064646326617376</v>
+        <v>1.07092929778898</v>
       </c>
       <c r="K4">
-        <v>1.066400812972403</v>
+        <v>1.070490140182881</v>
       </c>
       <c r="L4">
-        <v>1.058806664581839</v>
+        <v>1.072232258031573</v>
       </c>
       <c r="M4">
-        <v>1.072472380924801</v>
+        <v>1.082492525160479</v>
       </c>
       <c r="N4">
-        <v>1.066158246517813</v>
+        <v>1.072450140229148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047771967330475</v>
+        <v>1.06684452197394</v>
       </c>
       <c r="D5">
-        <v>1.058020430879017</v>
+        <v>1.068321919978064</v>
       </c>
       <c r="E5">
-        <v>1.050449742445157</v>
+        <v>1.0701056655373</v>
       </c>
       <c r="F5">
-        <v>1.064290205101769</v>
+        <v>1.080391270611301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063697888022318</v>
+        <v>1.054056327421755</v>
       </c>
       <c r="J5">
-        <v>1.065603659453213</v>
+        <v>1.071139418730129</v>
       </c>
       <c r="K5">
-        <v>1.067257293230832</v>
+        <v>1.070676750154113</v>
       </c>
       <c r="L5">
-        <v>1.059764839380185</v>
+        <v>1.072456372506387</v>
       </c>
       <c r="M5">
-        <v>1.073463302103624</v>
+        <v>1.082718486378841</v>
       </c>
       <c r="N5">
-        <v>1.067116938876084</v>
+        <v>1.072660559566134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.048008269899336</v>
+        <v>1.066895649787705</v>
       </c>
       <c r="D6">
-        <v>1.058200377507293</v>
+        <v>1.068361752607593</v>
       </c>
       <c r="E6">
-        <v>1.050647344707285</v>
+        <v>1.070151805153831</v>
       </c>
       <c r="F6">
-        <v>1.064492622320846</v>
+        <v>1.080437627031505</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063779004259156</v>
+        <v>1.054071383950476</v>
       </c>
       <c r="J6">
-        <v>1.065763647716635</v>
+        <v>1.071174691937882</v>
       </c>
       <c r="K6">
-        <v>1.067400424642296</v>
+        <v>1.070708075362031</v>
       </c>
       <c r="L6">
-        <v>1.059925078263817</v>
+        <v>1.072494005934555</v>
       </c>
       <c r="M6">
-        <v>1.073628975047007</v>
+        <v>1.082756425965943</v>
       </c>
       <c r="N6">
-        <v>1.067277154341192</v>
+        <v>1.072695882865888</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.046377429523092</v>
+        <v>1.066544093317048</v>
       </c>
       <c r="D7">
-        <v>1.056958737872672</v>
+        <v>1.068087865077819</v>
       </c>
       <c r="E7">
-        <v>1.049284444957522</v>
+        <v>1.069834611699071</v>
       </c>
       <c r="F7">
-        <v>1.063096250890307</v>
+        <v>1.080118920076096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063218456485135</v>
+        <v>1.053967763463805</v>
       </c>
       <c r="J7">
-        <v>1.064659169232184</v>
+        <v>1.070932105905829</v>
       </c>
       <c r="K7">
-        <v>1.066412302811</v>
+        <v>1.070492634172014</v>
       </c>
       <c r="L7">
-        <v>1.058819511091239</v>
+        <v>1.072235252417195</v>
       </c>
       <c r="M7">
-        <v>1.072485669316119</v>
+        <v>1.082495544484944</v>
       </c>
       <c r="N7">
-        <v>1.066171107370607</v>
+        <v>1.072452952333845</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039406781734311</v>
+        <v>1.065074841872495</v>
       </c>
       <c r="D8">
-        <v>1.051658630138345</v>
+        <v>1.066943290491757</v>
       </c>
       <c r="E8">
-        <v>1.043480995084712</v>
+        <v>1.06851057379147</v>
       </c>
       <c r="F8">
-        <v>1.057143600503015</v>
+        <v>1.078787989179359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060804513503924</v>
+        <v>1.053532431241602</v>
       </c>
       <c r="J8">
-        <v>1.059930517529491</v>
+        <v>1.069917119792189</v>
       </c>
       <c r="K8">
-        <v>1.062181527021378</v>
+        <v>1.069591051432748</v>
       </c>
       <c r="L8">
-        <v>1.054102519043666</v>
+        <v>1.071154231901216</v>
       </c>
       <c r="M8">
-        <v>1.067601404322843</v>
+        <v>1.081405061770649</v>
       </c>
       <c r="N8">
-        <v>1.061435740440112</v>
+        <v>1.071436524823503</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.026490731920396</v>
+        <v>1.062486548631896</v>
       </c>
       <c r="D9">
-        <v>1.041869208454764</v>
+        <v>1.064927297153347</v>
       </c>
       <c r="E9">
-        <v>1.032817221918728</v>
+        <v>1.066184189984385</v>
       </c>
       <c r="F9">
-        <v>1.04617927594851</v>
+        <v>1.076447314422221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056265179429476</v>
+        <v>1.052756974227622</v>
       </c>
       <c r="J9">
-        <v>1.051141505989626</v>
+        <v>1.068124756240409</v>
       </c>
       <c r="K9">
-        <v>1.054317642061634</v>
+        <v>1.067998310702057</v>
       </c>
       <c r="L9">
-        <v>1.045399391273546</v>
+        <v>1.069251348027599</v>
       </c>
       <c r="M9">
-        <v>1.058565062669906</v>
+        <v>1.079483357670309</v>
       </c>
       <c r="N9">
-        <v>1.052634247495747</v>
+        <v>1.069641615909892</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.017400347767024</v>
+        <v>1.060761472020063</v>
       </c>
       <c r="D10">
-        <v>1.035005032767006</v>
+        <v>1.06358392174334</v>
       </c>
       <c r="E10">
-        <v>1.025378091058314</v>
+        <v>1.06463782801161</v>
       </c>
       <c r="F10">
-        <v>1.038511730181157</v>
+        <v>1.074889975696942</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053028073458006</v>
+        <v>1.052234395154464</v>
       </c>
       <c r="J10">
-        <v>1.044940209798355</v>
+        <v>1.066927272486909</v>
       </c>
       <c r="K10">
-        <v>1.04876977128265</v>
+        <v>1.066933777063444</v>
       </c>
       <c r="L10">
-        <v>1.039303771253172</v>
+        <v>1.067984133383858</v>
       </c>
       <c r="M10">
-        <v>1.052218797453409</v>
+        <v>1.078202146540318</v>
       </c>
       <c r="N10">
-        <v>1.046424144752585</v>
+        <v>1.068442431592109</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01333697769572</v>
+        <v>1.060014594757611</v>
       </c>
       <c r="D11">
-        <v>1.031943944365287</v>
+        <v>1.063002375839722</v>
       </c>
       <c r="E11">
-        <v>1.022069822077608</v>
+        <v>1.063969323318995</v>
       </c>
       <c r="F11">
-        <v>1.03509721590571</v>
+        <v>1.074216372478352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051571722614137</v>
+        <v>1.05200678291434</v>
       </c>
       <c r="J11">
-        <v>1.042165258863269</v>
+        <v>1.066408137137074</v>
       </c>
       <c r="K11">
-        <v>1.046287581630704</v>
+        <v>1.066472181216271</v>
       </c>
       <c r="L11">
-        <v>1.036587199590152</v>
+        <v>1.067435745415631</v>
       </c>
       <c r="M11">
-        <v>1.049386272795517</v>
+        <v>1.077647352663457</v>
       </c>
       <c r="N11">
-        <v>1.043645253068881</v>
+        <v>1.067922559010532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011807305510891</v>
+        <v>1.059737184415686</v>
       </c>
       <c r="D12">
-        <v>1.030792761860261</v>
+        <v>1.062786385694011</v>
       </c>
       <c r="E12">
-        <v>1.020827085293764</v>
+        <v>1.063721173565889</v>
       </c>
       <c r="F12">
-        <v>1.033813847070036</v>
+        <v>1.073966276845992</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051022124689385</v>
+        <v>1.051922037430606</v>
       </c>
       <c r="J12">
-        <v>1.041120230894568</v>
+        <v>1.06621521427434</v>
       </c>
       <c r="K12">
-        <v>1.045352879430308</v>
+        <v>1.066300626931018</v>
       </c>
       <c r="L12">
-        <v>1.035565860746115</v>
+        <v>1.067232098675574</v>
       </c>
       <c r="M12">
-        <v>1.048320686424943</v>
+        <v>1.077441274472024</v>
       </c>
       <c r="N12">
-        <v>1.042598741040598</v>
+        <v>1.067729362175204</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.012136367737535</v>
+        <v>1.05979668929346</v>
       </c>
       <c r="D13">
-        <v>1.031040348793997</v>
+        <v>1.062832715319645</v>
       </c>
       <c r="E13">
-        <v>1.021094299296671</v>
+        <v>1.063774395164025</v>
       </c>
       <c r="F13">
-        <v>1.034089830744225</v>
+        <v>1.07401991820004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05114041381009</v>
+        <v>1.051940224682932</v>
       </c>
       <c r="J13">
-        <v>1.041345053122937</v>
+        <v>1.066256601089216</v>
       </c>
       <c r="K13">
-        <v>1.045553963063165</v>
+        <v>1.066337430298864</v>
       </c>
       <c r="L13">
-        <v>1.035785509012078</v>
+        <v>1.067275779372815</v>
       </c>
       <c r="M13">
-        <v>1.048549880280386</v>
+        <v>1.077485479079539</v>
       </c>
       <c r="N13">
-        <v>1.042823882542319</v>
+        <v>1.067770807764105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013210957360995</v>
+        <v>1.059991663668653</v>
       </c>
       <c r="D14">
-        <v>1.031849080985255</v>
+        <v>1.062984521579152</v>
       </c>
       <c r="E14">
-        <v>1.02196738553752</v>
+        <v>1.063948807862794</v>
       </c>
       <c r="F14">
-        <v>1.034991444928671</v>
+        <v>1.074195697238029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051526471643676</v>
+        <v>1.051999781909696</v>
       </c>
       <c r="J14">
-        <v>1.042079172871937</v>
+        <v>1.066392191968827</v>
       </c>
       <c r="K14">
-        <v>1.046210582304575</v>
+        <v>1.066458002465115</v>
       </c>
       <c r="L14">
-        <v>1.036503030193793</v>
+        <v>1.067418910912234</v>
       </c>
       <c r="M14">
-        <v>1.049298470284721</v>
+        <v>1.077630318237296</v>
       </c>
       <c r="N14">
-        <v>1.043559044825567</v>
+        <v>1.067906591198316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013870311031762</v>
+        <v>1.060111795533775</v>
       </c>
       <c r="D15">
-        <v>1.032345466223596</v>
+        <v>1.063078057332874</v>
       </c>
       <c r="E15">
-        <v>1.022503455615732</v>
+        <v>1.064056290847003</v>
       </c>
       <c r="F15">
-        <v>1.035544935217431</v>
+        <v>1.074304015166051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051763175636102</v>
+        <v>1.052036450558086</v>
       </c>
       <c r="J15">
-        <v>1.042529569863498</v>
+        <v>1.066475721671931</v>
       </c>
       <c r="K15">
-        <v>1.046613441503344</v>
+        <v>1.066532278097554</v>
       </c>
       <c r="L15">
-        <v>1.036943469295217</v>
+        <v>1.067507105473612</v>
       </c>
       <c r="M15">
-        <v>1.049757893931531</v>
+        <v>1.077719558022796</v>
       </c>
       <c r="N15">
-        <v>1.044010081432517</v>
+        <v>1.06799023952318</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.017667236584708</v>
+        <v>1.060811041685621</v>
       </c>
       <c r="D16">
-        <v>1.035206247501819</v>
+        <v>1.063622520090177</v>
       </c>
       <c r="E16">
-        <v>1.02559574715755</v>
+        <v>1.064682217256646</v>
       </c>
       <c r="F16">
-        <v>1.038736277368164</v>
+        <v>1.074934696021908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053123538912153</v>
+        <v>1.052249472961144</v>
       </c>
       <c r="J16">
-        <v>1.045122416115933</v>
+        <v>1.066961712775418</v>
       </c>
       <c r="K16">
-        <v>1.048932763754305</v>
+        <v>1.066964398052711</v>
       </c>
       <c r="L16">
-        <v>1.039482378040143</v>
+        <v>1.06802053494111</v>
       </c>
       <c r="M16">
-        <v>1.052404938092223</v>
+        <v>1.078238965949775</v>
       </c>
       <c r="N16">
-        <v>1.046606609824035</v>
+        <v>1.068476920789778</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020014049969365</v>
+        <v>1.061249684510533</v>
       </c>
       <c r="D17">
-        <v>1.036976400211104</v>
+        <v>1.063964086014133</v>
       </c>
       <c r="E17">
-        <v>1.02751159069276</v>
+        <v>1.065075133823199</v>
       </c>
       <c r="F17">
-        <v>1.040712243529975</v>
+        <v>1.075330502316125</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053961930004215</v>
+        <v>1.052382739631135</v>
       </c>
       <c r="J17">
-        <v>1.046724264514457</v>
+        <v>1.067266396840308</v>
       </c>
       <c r="K17">
-        <v>1.050365739392887</v>
+        <v>1.067235282584017</v>
       </c>
       <c r="L17">
-        <v>1.041053844975186</v>
+        <v>1.068342682684694</v>
       </c>
       <c r="M17">
-        <v>1.054042206173021</v>
+        <v>1.078564771275472</v>
       </c>
       <c r="N17">
-        <v>1.048210733031019</v>
+        <v>1.068782037540988</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.021370725814017</v>
+        <v>1.061505546403412</v>
       </c>
       <c r="D18">
-        <v>1.038000385045153</v>
+        <v>1.064163329569837</v>
       </c>
       <c r="E18">
-        <v>1.028620726617328</v>
+        <v>1.065304419612725</v>
       </c>
       <c r="F18">
-        <v>1.041855744455537</v>
+        <v>1.07556144030727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054445706168683</v>
+        <v>1.052460343303636</v>
       </c>
       <c r="J18">
-        <v>1.047649993794666</v>
+        <v>1.067444054382931</v>
       </c>
       <c r="K18">
-        <v>1.051193908323086</v>
+        <v>1.06739322264304</v>
       </c>
       <c r="L18">
-        <v>1.041963063115779</v>
+        <v>1.068530617290626</v>
       </c>
       <c r="M18">
-        <v>1.054989093398859</v>
+        <v>1.078754805975694</v>
       </c>
       <c r="N18">
-        <v>1.049137776952989</v>
+        <v>1.068959947377699</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021831287409145</v>
+        <v>1.061592790238143</v>
       </c>
       <c r="D19">
-        <v>1.038348116575822</v>
+        <v>1.064231268830757</v>
       </c>
       <c r="E19">
-        <v>1.028997521906842</v>
+        <v>1.065382617805519</v>
       </c>
       <c r="F19">
-        <v>1.042244139871889</v>
+        <v>1.075640196209717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054609784556105</v>
+        <v>1.052486782352212</v>
       </c>
       <c r="J19">
-        <v>1.047964207895137</v>
+        <v>1.067504620924318</v>
       </c>
       <c r="K19">
-        <v>1.051475013301803</v>
+        <v>1.067447065554159</v>
       </c>
       <c r="L19">
-        <v>1.042271849439923</v>
+        <v>1.06859470343247</v>
       </c>
       <c r="M19">
-        <v>1.055310605008338</v>
+        <v>1.078819602549132</v>
       </c>
       <c r="N19">
-        <v>1.049452437273523</v>
+        <v>1.069020599930522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019763527705407</v>
+        <v>1.061202621365678</v>
       </c>
       <c r="D20">
-        <v>1.036787365991739</v>
+        <v>1.063927437780654</v>
       </c>
       <c r="E20">
-        <v>1.027306907484054</v>
+        <v>1.065032966813151</v>
       </c>
       <c r="F20">
-        <v>1.040501182950428</v>
+        <v>1.075288028713946</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053872523910967</v>
+        <v>1.052368454672459</v>
       </c>
       <c r="J20">
-        <v>1.046553296665365</v>
+        <v>1.067233713281058</v>
       </c>
       <c r="K20">
-        <v>1.050212792003955</v>
+        <v>1.067206225681978</v>
       </c>
       <c r="L20">
-        <v>1.040886010880093</v>
+        <v>1.068308116043597</v>
       </c>
       <c r="M20">
-        <v>1.053867386275437</v>
+        <v>1.078529815656908</v>
       </c>
       <c r="N20">
-        <v>1.048039522387971</v>
+        <v>1.068749307567335</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012895089976966</v>
+        <v>1.059934248218274</v>
       </c>
       <c r="D21">
-        <v>1.03161132716313</v>
+        <v>1.062939817813469</v>
       </c>
       <c r="E21">
-        <v>1.021710673942468</v>
+        <v>1.063897443177158</v>
       </c>
       <c r="F21">
-        <v>1.034726365356099</v>
+        <v>1.074143931637848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051413029507565</v>
+        <v>1.051982249316614</v>
       </c>
       <c r="J21">
-        <v>1.041863394101087</v>
+        <v>1.066352266399689</v>
       </c>
       <c r="K21">
-        <v>1.046017580961205</v>
+        <v>1.066422499646109</v>
       </c>
       <c r="L21">
-        <v>1.036292083029722</v>
+        <v>1.067376760887629</v>
       </c>
       <c r="M21">
-        <v>1.049078407158883</v>
+        <v>1.077587666798461</v>
       </c>
       <c r="N21">
-        <v>1.043342959624112</v>
+        <v>1.067866608930291</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008458161488853</v>
+        <v>1.059136847271664</v>
       </c>
       <c r="D22">
-        <v>1.028274583048953</v>
+        <v>1.062318988718276</v>
       </c>
       <c r="E22">
-        <v>1.018111235610391</v>
+        <v>1.063184435648785</v>
       </c>
       <c r="F22">
-        <v>1.031007850655933</v>
+        <v>1.073425232372301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049816393666093</v>
+        <v>1.05173826858101</v>
       </c>
       <c r="J22">
-        <v>1.038831554564128</v>
+        <v>1.065797528300228</v>
       </c>
       <c r="K22">
-        <v>1.043305980956272</v>
+        <v>1.065929178559211</v>
       </c>
       <c r="L22">
-        <v>1.033332245649952</v>
+        <v>1.066791464371518</v>
       </c>
       <c r="M22">
-        <v>1.045989085923975</v>
+        <v>1.076995282866196</v>
       </c>
       <c r="N22">
-        <v>1.040306814527254</v>
+        <v>1.0673110830391</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010821936054545</v>
+        <v>1.05955955768088</v>
       </c>
       <c r="D23">
-        <v>1.0300515487425</v>
+        <v>1.062648089889377</v>
       </c>
       <c r="E23">
-        <v>1.020027320698811</v>
+        <v>1.063562325089902</v>
       </c>
       <c r="F23">
-        <v>1.032987727694783</v>
+        <v>1.07380616771819</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05066771771725</v>
+        <v>1.051867717171598</v>
       </c>
       <c r="J23">
-        <v>1.04044695423814</v>
+        <v>1.06609165646889</v>
       </c>
       <c r="K23">
-        <v>1.044750705229311</v>
+        <v>1.066190750623028</v>
       </c>
       <c r="L23">
-        <v>1.034908331386064</v>
+        <v>1.067101714181734</v>
       </c>
       <c r="M23">
-        <v>1.047634484909428</v>
+        <v>1.077309318422768</v>
       </c>
       <c r="N23">
-        <v>1.041924508254091</v>
+        <v>1.067605628903498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019876765482942</v>
+        <v>1.061223887147082</v>
       </c>
       <c r="D24">
-        <v>1.036872808674189</v>
+        <v>1.063943997496727</v>
       </c>
       <c r="E24">
-        <v>1.027399420738963</v>
+        <v>1.065052019947906</v>
       </c>
       <c r="F24">
-        <v>1.040596580033896</v>
+        <v>1.075307220487431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053912938847252</v>
+        <v>1.052374909827432</v>
       </c>
       <c r="J24">
-        <v>1.046630576200172</v>
+        <v>1.067248481758383</v>
       </c>
       <c r="K24">
-        <v>1.050281925970554</v>
+        <v>1.067219355437671</v>
       </c>
       <c r="L24">
-        <v>1.04096187067575</v>
+        <v>1.068323735124097</v>
       </c>
       <c r="M24">
-        <v>1.053946404848966</v>
+        <v>1.078545610602478</v>
       </c>
       <c r="N24">
-        <v>1.048116911668581</v>
+        <v>1.068764097017592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.029910164925277</v>
+        <v>1.063155602668453</v>
       </c>
       <c r="D25">
-        <v>1.044456814063429</v>
+        <v>1.065448371879091</v>
       </c>
       <c r="E25">
-        <v>1.035629430984968</v>
+        <v>1.066784814247737</v>
       </c>
       <c r="F25">
-        <v>1.0490739129524</v>
+        <v>1.077051888163471</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057474410231049</v>
+        <v>1.052958437129463</v>
       </c>
       <c r="J25">
-        <v>1.053471221644975</v>
+        <v>1.068588578943486</v>
       </c>
       <c r="K25">
-        <v>1.056402080269612</v>
+        <v>1.068410549955966</v>
       </c>
       <c r="L25">
-        <v>1.047698724071932</v>
+        <v>1.069743048421395</v>
       </c>
       <c r="M25">
-        <v>1.06095535549469</v>
+        <v>1.07998017858996</v>
       </c>
       <c r="N25">
-        <v>1.054967271614549</v>
+        <v>1.070106097294409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.06469664608609</v>
+        <v>1.037571154219929</v>
       </c>
       <c r="D2">
-        <v>1.066648690080083</v>
+        <v>1.050264842286849</v>
       </c>
       <c r="E2">
-        <v>1.068170168690908</v>
+        <v>1.041958502180313</v>
       </c>
       <c r="F2">
-        <v>1.078445664253329</v>
+        <v>1.055580235413878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053419792298343</v>
+        <v>1.060164323668392</v>
       </c>
       <c r="J2">
-        <v>1.069655561025508</v>
+        <v>1.058683385896271</v>
       </c>
       <c r="K2">
-        <v>1.069358672877275</v>
+        <v>1.06106565867997</v>
       </c>
       <c r="L2">
-        <v>1.070876068790684</v>
+        <v>1.052862672326853</v>
       </c>
       <c r="M2">
-        <v>1.081124317237727</v>
+        <v>1.06631597447516</v>
       </c>
       <c r="N2">
-        <v>1.071174594613372</v>
+        <v>1.060186837736925</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065815776577428</v>
+        <v>1.042953607043216</v>
       </c>
       <c r="D3">
-        <v>1.067520476643631</v>
+        <v>1.054354015597021</v>
       </c>
       <c r="E3">
-        <v>1.069177957709172</v>
+        <v>1.046429534604635</v>
       </c>
       <c r="F3">
-        <v>1.079458962644476</v>
+        <v>1.060169271993755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053752420509926</v>
+        <v>1.062036301139853</v>
       </c>
       <c r="J3">
-        <v>1.070429201011841</v>
+        <v>1.06233807064437</v>
       </c>
       <c r="K3">
-        <v>1.070045952391182</v>
+        <v>1.064335637228947</v>
       </c>
       <c r="L3">
-        <v>1.071699307232123</v>
+        <v>1.056500904724372</v>
       </c>
       <c r="M3">
-        <v>1.081955022508909</v>
+        <v>1.070086082825096</v>
       </c>
       <c r="N3">
-        <v>1.071949333257223</v>
+        <v>1.063846712556566</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066540024701919</v>
+        <v>1.046358472921893</v>
       </c>
       <c r="D4">
-        <v>1.068084695376896</v>
+        <v>1.056944308867316</v>
       </c>
       <c r="E4">
-        <v>1.069830941647321</v>
+        <v>1.049268614505239</v>
       </c>
       <c r="F4">
-        <v>1.080115232197489</v>
+        <v>1.063080028072033</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053966563001247</v>
+        <v>1.06321193091158</v>
       </c>
       <c r="J4">
-        <v>1.07092929778898</v>
+        <v>1.064646326617378</v>
       </c>
       <c r="K4">
-        <v>1.070490140182881</v>
+        <v>1.066400812972405</v>
       </c>
       <c r="L4">
-        <v>1.072232258031573</v>
+        <v>1.058806664581841</v>
       </c>
       <c r="M4">
-        <v>1.082492525160479</v>
+        <v>1.072472380924803</v>
       </c>
       <c r="N4">
-        <v>1.072450140229148</v>
+        <v>1.066158246517815</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06684452197394</v>
+        <v>1.047771967330476</v>
       </c>
       <c r="D5">
-        <v>1.068321919978064</v>
+        <v>1.058020430879018</v>
       </c>
       <c r="E5">
-        <v>1.0701056655373</v>
+        <v>1.050449742445157</v>
       </c>
       <c r="F5">
-        <v>1.080391270611301</v>
+        <v>1.06429020510177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054056327421755</v>
+        <v>1.063697888022319</v>
       </c>
       <c r="J5">
-        <v>1.071139418730129</v>
+        <v>1.065603659453213</v>
       </c>
       <c r="K5">
-        <v>1.070676750154113</v>
+        <v>1.067257293230832</v>
       </c>
       <c r="L5">
-        <v>1.072456372506387</v>
+        <v>1.059764839380186</v>
       </c>
       <c r="M5">
-        <v>1.082718486378841</v>
+        <v>1.073463302103625</v>
       </c>
       <c r="N5">
-        <v>1.072660559566134</v>
+        <v>1.067116938876085</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066895649787705</v>
+        <v>1.048008269899335</v>
       </c>
       <c r="D6">
-        <v>1.068361752607593</v>
+        <v>1.058200377507292</v>
       </c>
       <c r="E6">
-        <v>1.070151805153831</v>
+        <v>1.050647344707285</v>
       </c>
       <c r="F6">
-        <v>1.080437627031505</v>
+        <v>1.064492622320845</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054071383950476</v>
+        <v>1.063779004259156</v>
       </c>
       <c r="J6">
-        <v>1.071174691937882</v>
+        <v>1.065763647716634</v>
       </c>
       <c r="K6">
-        <v>1.070708075362031</v>
+        <v>1.067400424642295</v>
       </c>
       <c r="L6">
-        <v>1.072494005934555</v>
+        <v>1.059925078263817</v>
       </c>
       <c r="M6">
-        <v>1.082756425965943</v>
+        <v>1.073628975047006</v>
       </c>
       <c r="N6">
-        <v>1.072695882865888</v>
+        <v>1.067277154341191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066544093317048</v>
+        <v>1.046377429523093</v>
       </c>
       <c r="D7">
-        <v>1.068087865077819</v>
+        <v>1.056958737872672</v>
       </c>
       <c r="E7">
-        <v>1.069834611699071</v>
+        <v>1.049284444957522</v>
       </c>
       <c r="F7">
-        <v>1.080118920076096</v>
+        <v>1.063096250890308</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053967763463805</v>
+        <v>1.063218456485135</v>
       </c>
       <c r="J7">
-        <v>1.070932105905829</v>
+        <v>1.064659169232184</v>
       </c>
       <c r="K7">
-        <v>1.070492634172014</v>
+        <v>1.066412302811</v>
       </c>
       <c r="L7">
-        <v>1.072235252417195</v>
+        <v>1.058819511091239</v>
       </c>
       <c r="M7">
-        <v>1.082495544484944</v>
+        <v>1.072485669316119</v>
       </c>
       <c r="N7">
-        <v>1.072452952333845</v>
+        <v>1.066171107370607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065074841872495</v>
+        <v>1.03940678173431</v>
       </c>
       <c r="D8">
-        <v>1.066943290491757</v>
+        <v>1.051658630138343</v>
       </c>
       <c r="E8">
-        <v>1.06851057379147</v>
+        <v>1.043480995084711</v>
       </c>
       <c r="F8">
-        <v>1.078787989179359</v>
+        <v>1.057143600503014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053532431241602</v>
+        <v>1.060804513503924</v>
       </c>
       <c r="J8">
-        <v>1.069917119792189</v>
+        <v>1.05993051752949</v>
       </c>
       <c r="K8">
-        <v>1.069591051432748</v>
+        <v>1.062181527021377</v>
       </c>
       <c r="L8">
-        <v>1.071154231901216</v>
+        <v>1.054102519043665</v>
       </c>
       <c r="M8">
-        <v>1.081405061770649</v>
+        <v>1.067601404322841</v>
       </c>
       <c r="N8">
-        <v>1.071436524823503</v>
+        <v>1.061435740440111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062486548631896</v>
+        <v>1.026490731920397</v>
       </c>
       <c r="D9">
-        <v>1.064927297153347</v>
+        <v>1.041869208454764</v>
       </c>
       <c r="E9">
-        <v>1.066184189984385</v>
+        <v>1.032817221918729</v>
       </c>
       <c r="F9">
-        <v>1.076447314422221</v>
+        <v>1.046179275948511</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052756974227622</v>
+        <v>1.056265179429476</v>
       </c>
       <c r="J9">
-        <v>1.068124756240409</v>
+        <v>1.051141505989626</v>
       </c>
       <c r="K9">
-        <v>1.067998310702057</v>
+        <v>1.054317642061635</v>
       </c>
       <c r="L9">
-        <v>1.069251348027599</v>
+        <v>1.045399391273546</v>
       </c>
       <c r="M9">
-        <v>1.079483357670309</v>
+        <v>1.058565062669907</v>
       </c>
       <c r="N9">
-        <v>1.069641615909892</v>
+        <v>1.052634247495748</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060761472020063</v>
+        <v>1.017400347767025</v>
       </c>
       <c r="D10">
-        <v>1.06358392174334</v>
+        <v>1.035005032767007</v>
       </c>
       <c r="E10">
-        <v>1.06463782801161</v>
+        <v>1.025378091058315</v>
       </c>
       <c r="F10">
-        <v>1.074889975696942</v>
+        <v>1.038511730181158</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052234395154464</v>
+        <v>1.053028073458006</v>
       </c>
       <c r="J10">
-        <v>1.066927272486909</v>
+        <v>1.044940209798355</v>
       </c>
       <c r="K10">
-        <v>1.066933777063444</v>
+        <v>1.048769771282651</v>
       </c>
       <c r="L10">
-        <v>1.067984133383858</v>
+        <v>1.039303771253173</v>
       </c>
       <c r="M10">
-        <v>1.078202146540318</v>
+        <v>1.05221879745341</v>
       </c>
       <c r="N10">
-        <v>1.068442431592109</v>
+        <v>1.046424144752586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060014594757611</v>
+        <v>1.013336977695719</v>
       </c>
       <c r="D11">
-        <v>1.063002375839722</v>
+        <v>1.031943944365287</v>
       </c>
       <c r="E11">
-        <v>1.063969323318995</v>
+        <v>1.022069822077607</v>
       </c>
       <c r="F11">
-        <v>1.074216372478352</v>
+        <v>1.03509721590571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05200678291434</v>
+        <v>1.051571722614137</v>
       </c>
       <c r="J11">
-        <v>1.066408137137074</v>
+        <v>1.042165258863269</v>
       </c>
       <c r="K11">
-        <v>1.066472181216271</v>
+        <v>1.046287581630704</v>
       </c>
       <c r="L11">
-        <v>1.067435745415631</v>
+        <v>1.036587199590152</v>
       </c>
       <c r="M11">
-        <v>1.077647352663457</v>
+        <v>1.049386272795517</v>
       </c>
       <c r="N11">
-        <v>1.067922559010532</v>
+        <v>1.043645253068881</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059737184415686</v>
+        <v>1.011807305510892</v>
       </c>
       <c r="D12">
-        <v>1.062786385694011</v>
+        <v>1.030792761860262</v>
       </c>
       <c r="E12">
-        <v>1.063721173565889</v>
+        <v>1.020827085293764</v>
       </c>
       <c r="F12">
-        <v>1.073966276845992</v>
+        <v>1.033813847070036</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051922037430606</v>
+        <v>1.051022124689385</v>
       </c>
       <c r="J12">
-        <v>1.06621521427434</v>
+        <v>1.041120230894568</v>
       </c>
       <c r="K12">
-        <v>1.066300626931018</v>
+        <v>1.045352879430308</v>
       </c>
       <c r="L12">
-        <v>1.067232098675574</v>
+        <v>1.035565860746115</v>
       </c>
       <c r="M12">
-        <v>1.077441274472024</v>
+        <v>1.048320686424943</v>
       </c>
       <c r="N12">
-        <v>1.067729362175204</v>
+        <v>1.042598741040598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05979668929346</v>
+        <v>1.012136367737533</v>
       </c>
       <c r="D13">
-        <v>1.062832715319645</v>
+        <v>1.031040348793996</v>
       </c>
       <c r="E13">
-        <v>1.063774395164025</v>
+        <v>1.02109429929667</v>
       </c>
       <c r="F13">
-        <v>1.07401991820004</v>
+        <v>1.034089830744224</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051940224682932</v>
+        <v>1.051140413810089</v>
       </c>
       <c r="J13">
-        <v>1.066256601089216</v>
+        <v>1.041345053122935</v>
       </c>
       <c r="K13">
-        <v>1.066337430298864</v>
+        <v>1.045553963063164</v>
       </c>
       <c r="L13">
-        <v>1.067275779372815</v>
+        <v>1.035785509012076</v>
       </c>
       <c r="M13">
-        <v>1.077485479079539</v>
+        <v>1.048549880280384</v>
       </c>
       <c r="N13">
-        <v>1.067770807764105</v>
+        <v>1.042823882542317</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059991663668653</v>
+        <v>1.013210957360995</v>
       </c>
       <c r="D14">
-        <v>1.062984521579152</v>
+        <v>1.031849080985255</v>
       </c>
       <c r="E14">
-        <v>1.063948807862794</v>
+        <v>1.02196738553752</v>
       </c>
       <c r="F14">
-        <v>1.074195697238029</v>
+        <v>1.034991444928671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051999781909696</v>
+        <v>1.051526471643676</v>
       </c>
       <c r="J14">
-        <v>1.066392191968827</v>
+        <v>1.042079172871937</v>
       </c>
       <c r="K14">
-        <v>1.066458002465115</v>
+        <v>1.046210582304575</v>
       </c>
       <c r="L14">
-        <v>1.067418910912234</v>
+        <v>1.036503030193793</v>
       </c>
       <c r="M14">
-        <v>1.077630318237296</v>
+        <v>1.049298470284721</v>
       </c>
       <c r="N14">
-        <v>1.067906591198316</v>
+        <v>1.043559044825567</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060111795533775</v>
+        <v>1.01387031103176</v>
       </c>
       <c r="D15">
-        <v>1.063078057332874</v>
+        <v>1.032345466223595</v>
       </c>
       <c r="E15">
-        <v>1.064056290847003</v>
+        <v>1.022503455615731</v>
       </c>
       <c r="F15">
-        <v>1.074304015166051</v>
+        <v>1.03554493521743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052036450558086</v>
+        <v>1.051763175636101</v>
       </c>
       <c r="J15">
-        <v>1.066475721671931</v>
+        <v>1.042529569863497</v>
       </c>
       <c r="K15">
-        <v>1.066532278097554</v>
+        <v>1.046613441503342</v>
       </c>
       <c r="L15">
-        <v>1.067507105473612</v>
+        <v>1.036943469295216</v>
       </c>
       <c r="M15">
-        <v>1.077719558022796</v>
+        <v>1.04975789393153</v>
       </c>
       <c r="N15">
-        <v>1.06799023952318</v>
+        <v>1.044010081432516</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060811041685621</v>
+        <v>1.017667236584708</v>
       </c>
       <c r="D16">
-        <v>1.063622520090177</v>
+        <v>1.03520624750182</v>
       </c>
       <c r="E16">
-        <v>1.064682217256646</v>
+        <v>1.025595747157551</v>
       </c>
       <c r="F16">
-        <v>1.074934696021908</v>
+        <v>1.038736277368165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052249472961144</v>
+        <v>1.053123538912153</v>
       </c>
       <c r="J16">
-        <v>1.066961712775418</v>
+        <v>1.045122416115934</v>
       </c>
       <c r="K16">
-        <v>1.066964398052711</v>
+        <v>1.048932763754306</v>
       </c>
       <c r="L16">
-        <v>1.06802053494111</v>
+        <v>1.039482378040144</v>
       </c>
       <c r="M16">
-        <v>1.078238965949775</v>
+        <v>1.052404938092224</v>
       </c>
       <c r="N16">
-        <v>1.068476920789778</v>
+        <v>1.046606609824035</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061249684510533</v>
+        <v>1.020014049969363</v>
       </c>
       <c r="D17">
-        <v>1.063964086014133</v>
+        <v>1.036976400211103</v>
       </c>
       <c r="E17">
-        <v>1.065075133823199</v>
+        <v>1.027511590692761</v>
       </c>
       <c r="F17">
-        <v>1.075330502316125</v>
+        <v>1.040712243529974</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052382739631135</v>
+        <v>1.053961930004214</v>
       </c>
       <c r="J17">
-        <v>1.067266396840308</v>
+        <v>1.046724264514456</v>
       </c>
       <c r="K17">
-        <v>1.067235282584017</v>
+        <v>1.050365739392887</v>
       </c>
       <c r="L17">
-        <v>1.068342682684694</v>
+        <v>1.041053844975186</v>
       </c>
       <c r="M17">
-        <v>1.078564771275472</v>
+        <v>1.05404220617302</v>
       </c>
       <c r="N17">
-        <v>1.068782037540988</v>
+        <v>1.048210733031018</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061505546403412</v>
+        <v>1.021370725814018</v>
       </c>
       <c r="D18">
-        <v>1.064163329569837</v>
+        <v>1.038000385045154</v>
       </c>
       <c r="E18">
-        <v>1.065304419612725</v>
+        <v>1.028620726617329</v>
       </c>
       <c r="F18">
-        <v>1.07556144030727</v>
+        <v>1.041855744455538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052460343303636</v>
+        <v>1.054445706168684</v>
       </c>
       <c r="J18">
-        <v>1.067444054382931</v>
+        <v>1.047649993794668</v>
       </c>
       <c r="K18">
-        <v>1.06739322264304</v>
+        <v>1.051193908323087</v>
       </c>
       <c r="L18">
-        <v>1.068530617290626</v>
+        <v>1.04196306311578</v>
       </c>
       <c r="M18">
-        <v>1.078754805975694</v>
+        <v>1.05498909339886</v>
       </c>
       <c r="N18">
-        <v>1.068959947377699</v>
+        <v>1.04913777695299</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061592790238143</v>
+        <v>1.021831287409146</v>
       </c>
       <c r="D19">
-        <v>1.064231268830757</v>
+        <v>1.038348116575822</v>
       </c>
       <c r="E19">
-        <v>1.065382617805519</v>
+        <v>1.028997521906843</v>
       </c>
       <c r="F19">
-        <v>1.075640196209717</v>
+        <v>1.04224413987189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052486782352212</v>
+        <v>1.054609784556105</v>
       </c>
       <c r="J19">
-        <v>1.067504620924318</v>
+        <v>1.047964207895137</v>
       </c>
       <c r="K19">
-        <v>1.067447065554159</v>
+        <v>1.051475013301804</v>
       </c>
       <c r="L19">
-        <v>1.06859470343247</v>
+        <v>1.042271849439924</v>
       </c>
       <c r="M19">
-        <v>1.078819602549132</v>
+        <v>1.055310605008339</v>
       </c>
       <c r="N19">
-        <v>1.069020599930522</v>
+        <v>1.049452437273523</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061202621365678</v>
+        <v>1.019763527705408</v>
       </c>
       <c r="D20">
-        <v>1.063927437780654</v>
+        <v>1.03678736599174</v>
       </c>
       <c r="E20">
-        <v>1.065032966813151</v>
+        <v>1.027306907484055</v>
       </c>
       <c r="F20">
-        <v>1.075288028713946</v>
+        <v>1.040501182950428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052368454672459</v>
+        <v>1.053872523910967</v>
       </c>
       <c r="J20">
-        <v>1.067233713281058</v>
+        <v>1.046553296665366</v>
       </c>
       <c r="K20">
-        <v>1.067206225681978</v>
+        <v>1.050212792003955</v>
       </c>
       <c r="L20">
-        <v>1.068308116043597</v>
+        <v>1.040886010880093</v>
       </c>
       <c r="M20">
-        <v>1.078529815656908</v>
+        <v>1.053867386275437</v>
       </c>
       <c r="N20">
-        <v>1.068749307567335</v>
+        <v>1.048039522387972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059934248218274</v>
+        <v>1.012895089976967</v>
       </c>
       <c r="D21">
-        <v>1.062939817813469</v>
+        <v>1.031611327163131</v>
       </c>
       <c r="E21">
-        <v>1.063897443177158</v>
+        <v>1.021710673942468</v>
       </c>
       <c r="F21">
-        <v>1.074143931637848</v>
+        <v>1.0347263653561</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051982249316614</v>
+        <v>1.051413029507565</v>
       </c>
       <c r="J21">
-        <v>1.066352266399689</v>
+        <v>1.041863394101088</v>
       </c>
       <c r="K21">
-        <v>1.066422499646109</v>
+        <v>1.046017580961206</v>
       </c>
       <c r="L21">
-        <v>1.067376760887629</v>
+        <v>1.036292083029722</v>
       </c>
       <c r="M21">
-        <v>1.077587666798461</v>
+        <v>1.049078407158883</v>
       </c>
       <c r="N21">
-        <v>1.067866608930291</v>
+        <v>1.043342959624113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059136847271664</v>
+        <v>1.008458161488853</v>
       </c>
       <c r="D22">
-        <v>1.062318988718276</v>
+        <v>1.028274583048953</v>
       </c>
       <c r="E22">
-        <v>1.063184435648785</v>
+        <v>1.018111235610392</v>
       </c>
       <c r="F22">
-        <v>1.073425232372301</v>
+        <v>1.031007850655933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05173826858101</v>
+        <v>1.049816393666093</v>
       </c>
       <c r="J22">
-        <v>1.065797528300228</v>
+        <v>1.038831554564129</v>
       </c>
       <c r="K22">
-        <v>1.065929178559211</v>
+        <v>1.043305980956273</v>
       </c>
       <c r="L22">
-        <v>1.066791464371518</v>
+        <v>1.033332245649953</v>
       </c>
       <c r="M22">
-        <v>1.076995282866196</v>
+        <v>1.045989085923975</v>
       </c>
       <c r="N22">
-        <v>1.0673110830391</v>
+        <v>1.040306814527255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05955955768088</v>
+        <v>1.010821936054545</v>
       </c>
       <c r="D23">
-        <v>1.062648089889377</v>
+        <v>1.0300515487425</v>
       </c>
       <c r="E23">
-        <v>1.063562325089902</v>
+        <v>1.020027320698812</v>
       </c>
       <c r="F23">
-        <v>1.07380616771819</v>
+        <v>1.032987727694783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051867717171598</v>
+        <v>1.05066771771725</v>
       </c>
       <c r="J23">
-        <v>1.06609165646889</v>
+        <v>1.04044695423814</v>
       </c>
       <c r="K23">
-        <v>1.066190750623028</v>
+        <v>1.044750705229311</v>
       </c>
       <c r="L23">
-        <v>1.067101714181734</v>
+        <v>1.034908331386064</v>
       </c>
       <c r="M23">
-        <v>1.077309318422768</v>
+        <v>1.047634484909428</v>
       </c>
       <c r="N23">
-        <v>1.067605628903498</v>
+        <v>1.041924508254092</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061223887147082</v>
+        <v>1.019876765482943</v>
       </c>
       <c r="D24">
-        <v>1.063943997496727</v>
+        <v>1.036872808674189</v>
       </c>
       <c r="E24">
-        <v>1.065052019947906</v>
+        <v>1.027399420738964</v>
       </c>
       <c r="F24">
-        <v>1.075307220487431</v>
+        <v>1.040596580033897</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052374909827432</v>
+        <v>1.053912938847252</v>
       </c>
       <c r="J24">
-        <v>1.067248481758383</v>
+        <v>1.046630576200172</v>
       </c>
       <c r="K24">
-        <v>1.067219355437671</v>
+        <v>1.050281925970554</v>
       </c>
       <c r="L24">
-        <v>1.068323735124097</v>
+        <v>1.04096187067575</v>
       </c>
       <c r="M24">
-        <v>1.078545610602478</v>
+        <v>1.053946404848967</v>
       </c>
       <c r="N24">
-        <v>1.068764097017592</v>
+        <v>1.048116911668581</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063155602668453</v>
+        <v>1.029910164925275</v>
       </c>
       <c r="D25">
-        <v>1.065448371879091</v>
+        <v>1.044456814063427</v>
       </c>
       <c r="E25">
-        <v>1.066784814247737</v>
+        <v>1.035629430984967</v>
       </c>
       <c r="F25">
-        <v>1.077051888163471</v>
+        <v>1.049073912952398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052958437129463</v>
+        <v>1.057474410231048</v>
       </c>
       <c r="J25">
-        <v>1.068588578943486</v>
+        <v>1.053471221644974</v>
       </c>
       <c r="K25">
-        <v>1.068410549955966</v>
+        <v>1.05640208026961</v>
       </c>
       <c r="L25">
-        <v>1.069743048421395</v>
+        <v>1.047698724071931</v>
       </c>
       <c r="M25">
-        <v>1.07998017858996</v>
+        <v>1.060955355494688</v>
       </c>
       <c r="N25">
-        <v>1.070106097294409</v>
+        <v>1.054967271614548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037571154219929</v>
+        <v>0.9950765890567087</v>
       </c>
       <c r="D2">
-        <v>1.050264842286849</v>
+        <v>1.016951339531391</v>
       </c>
       <c r="E2">
-        <v>1.041958502180313</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.055580235413878</v>
+        <v>1.023166690349504</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060164323668392</v>
+        <v>1.042660039198274</v>
       </c>
       <c r="J2">
-        <v>1.058683385896271</v>
+        <v>1.017405562365749</v>
       </c>
       <c r="K2">
-        <v>1.06106565867997</v>
+        <v>1.028179460557702</v>
       </c>
       <c r="L2">
-        <v>1.052862672326853</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.06631597447516</v>
+        <v>1.034312442058647</v>
       </c>
       <c r="N2">
-        <v>1.060186837736925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009813476194188</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035728370743135</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030995462369037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042953607043216</v>
+        <v>0.9983596090891349</v>
       </c>
       <c r="D3">
-        <v>1.054354015597021</v>
+        <v>1.019005398514641</v>
       </c>
       <c r="E3">
-        <v>1.046429534604635</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.060169271993755</v>
+        <v>1.025667255288075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062036301139853</v>
+        <v>1.04312761324191</v>
       </c>
       <c r="J3">
-        <v>1.06233807064437</v>
+        <v>1.018895092926565</v>
       </c>
       <c r="K3">
-        <v>1.064335637228947</v>
+        <v>1.029400742458236</v>
       </c>
       <c r="L3">
-        <v>1.056500904724372</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.070086082825096</v>
+        <v>1.035981923263311</v>
       </c>
       <c r="N3">
-        <v>1.063846712556566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010315319827795</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037049660774264</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03185633856867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046358472921893</v>
+        <v>1.000449271505669</v>
       </c>
       <c r="D4">
-        <v>1.056944308867316</v>
+        <v>1.020316075355563</v>
       </c>
       <c r="E4">
-        <v>1.049268614505239</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.063080028072033</v>
+        <v>1.027264870081697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06321193091158</v>
+        <v>1.043415778939381</v>
       </c>
       <c r="J4">
-        <v>1.064646326617378</v>
+        <v>1.019841491850105</v>
       </c>
       <c r="K4">
-        <v>1.066400812972405</v>
+        <v>1.030175333990306</v>
       </c>
       <c r="L4">
-        <v>1.058806664581841</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.072472380924803</v>
+        <v>1.03704500226346</v>
       </c>
       <c r="N4">
-        <v>1.066158246517815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010634148197461</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037891020081636</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032404956488792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047771967330476</v>
+        <v>1.001322378382044</v>
       </c>
       <c r="D5">
-        <v>1.058020430879018</v>
+        <v>1.020866560578423</v>
       </c>
       <c r="E5">
-        <v>1.050449742445157</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.06429020510177</v>
+        <v>1.027932983254772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063697888022319</v>
+        <v>1.043535172801374</v>
       </c>
       <c r="J5">
-        <v>1.065603659453213</v>
+        <v>1.020237898287208</v>
       </c>
       <c r="K5">
-        <v>1.067257293230832</v>
+        <v>1.03050104755165</v>
       </c>
       <c r="L5">
-        <v>1.059764839380186</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.073463302103625</v>
+        <v>1.037489126126031</v>
       </c>
       <c r="N5">
-        <v>1.067116938876085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010767896038292</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038242515533066</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032642509771313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048008269899335</v>
+        <v>1.001471787577503</v>
       </c>
       <c r="D6">
-        <v>1.058200377507292</v>
+        <v>1.02096336483255</v>
       </c>
       <c r="E6">
-        <v>1.050647344707285</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.064492622320845</v>
+        <v>1.028046412960214</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063779004259156</v>
+        <v>1.043557044217484</v>
       </c>
       <c r="J6">
-        <v>1.065763647716634</v>
+        <v>1.020307417335564</v>
       </c>
       <c r="K6">
-        <v>1.067400424642295</v>
+        <v>1.030560097298326</v>
       </c>
       <c r="L6">
-        <v>1.059925078263817</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.073628975047006</v>
+        <v>1.037564973122663</v>
       </c>
       <c r="N6">
-        <v>1.067277154341191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010791608815362</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038302543531765</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032693095366662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046377429523093</v>
+        <v>1.000469771857275</v>
       </c>
       <c r="D7">
-        <v>1.056958737872672</v>
+        <v>1.020335842234432</v>
       </c>
       <c r="E7">
-        <v>1.049284444957522</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.063096250890308</v>
+        <v>1.027277917843507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063218456485135</v>
+        <v>1.043422814043437</v>
       </c>
       <c r="J7">
-        <v>1.064659169232184</v>
+        <v>1.01985538215902</v>
       </c>
       <c r="K7">
-        <v>1.066412302811</v>
+        <v>1.030191952686115</v>
       </c>
       <c r="L7">
-        <v>1.058819511091239</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.072485669316119</v>
+        <v>1.037055007881925</v>
       </c>
       <c r="N7">
-        <v>1.066171107370607</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010639535988814</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037898938886549</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032437019693299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03940678173431</v>
+        <v>0.9962043508851405</v>
       </c>
       <c r="D8">
-        <v>1.051658630138343</v>
+        <v>1.017664669438989</v>
       </c>
       <c r="E8">
-        <v>1.043480995084711</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.057143600503014</v>
+        <v>1.024021157292057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060804513503924</v>
+        <v>1.042827760552461</v>
       </c>
       <c r="J8">
-        <v>1.05993051752949</v>
+        <v>1.01792323271856</v>
       </c>
       <c r="K8">
-        <v>1.062181527021377</v>
+        <v>1.028610561954157</v>
       </c>
       <c r="L8">
-        <v>1.054102519043665</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.067601404322841</v>
+        <v>1.034885287929372</v>
       </c>
       <c r="N8">
-        <v>1.061435740440111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009988811003288</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036181742724175</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031323430873636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026490731920397</v>
+        <v>0.9883982921136261</v>
       </c>
       <c r="D9">
-        <v>1.041869208454764</v>
+        <v>1.012792808385857</v>
       </c>
       <c r="E9">
-        <v>1.032817221918729</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.046179275948511</v>
+        <v>1.018114363772214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056265179429476</v>
+        <v>1.04165901377895</v>
       </c>
       <c r="J9">
-        <v>1.051141505989626</v>
+        <v>1.01436749512074</v>
       </c>
       <c r="K9">
-        <v>1.054317642061635</v>
+        <v>1.025681685750357</v>
       </c>
       <c r="L9">
-        <v>1.045399391273546</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.058565062669907</v>
+        <v>1.030920228869952</v>
       </c>
       <c r="N9">
-        <v>1.052634247495748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008789934472104</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033043638412671</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029249277717834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017400347767025</v>
+        <v>0.9830506376359766</v>
       </c>
       <c r="D10">
-        <v>1.035005032767007</v>
+        <v>1.009486008648114</v>
       </c>
       <c r="E10">
-        <v>1.025378091058315</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.038511730181158</v>
+        <v>1.014277922418203</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053028073458006</v>
+        <v>1.040836929358984</v>
       </c>
       <c r="J10">
-        <v>1.044940209798355</v>
+        <v>1.011953251745065</v>
       </c>
       <c r="K10">
-        <v>1.048769771282651</v>
+        <v>1.023686076781475</v>
       </c>
       <c r="L10">
-        <v>1.039303771253173</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.05221879745341</v>
+        <v>1.028394082613448</v>
       </c>
       <c r="N10">
-        <v>1.046424144752586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007979491102306</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031096242510133</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027855216763856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013336977695719</v>
+        <v>0.9811189935376361</v>
       </c>
       <c r="D11">
-        <v>1.031943944365287</v>
+        <v>1.008364555454492</v>
       </c>
       <c r="E11">
-        <v>1.022069822077607</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.03509721590571</v>
+        <v>1.014285446471811</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051571722614137</v>
+        <v>1.040723144064941</v>
       </c>
       <c r="J11">
-        <v>1.042165258863269</v>
+        <v>1.011298899879308</v>
       </c>
       <c r="K11">
-        <v>1.046287581630704</v>
+        <v>1.023130433869789</v>
       </c>
       <c r="L11">
-        <v>1.036587199590152</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.049386272795517</v>
+        <v>1.028942896606867</v>
       </c>
       <c r="N11">
-        <v>1.043645253068881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007789188749079</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031970079783038</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027495525593052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011807305510892</v>
+        <v>0.9805295917612027</v>
       </c>
       <c r="D12">
-        <v>1.030792761860262</v>
+        <v>1.008043025410913</v>
       </c>
       <c r="E12">
-        <v>1.020827085293764</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.033813847070036</v>
+        <v>1.014860312533373</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051022124689385</v>
+        <v>1.040759283642164</v>
       </c>
       <c r="J12">
-        <v>1.041120230894568</v>
+        <v>1.011181460173992</v>
       </c>
       <c r="K12">
-        <v>1.045352879430308</v>
+        <v>1.023017739131589</v>
       </c>
       <c r="L12">
-        <v>1.035565860746115</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.048320686424943</v>
+        <v>1.029708244720387</v>
       </c>
       <c r="N12">
-        <v>1.042598741040598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007773024076682</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032903852190005</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02741584524955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012136367737533</v>
+        <v>0.9809440268857326</v>
       </c>
       <c r="D13">
-        <v>1.031040348793996</v>
+        <v>1.008329214864985</v>
       </c>
       <c r="E13">
-        <v>1.02109429929667</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.034089830744224</v>
+        <v>1.015935428091179</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051140413810089</v>
+        <v>1.040924507603901</v>
       </c>
       <c r="J13">
-        <v>1.041345053122935</v>
+        <v>1.011481691953408</v>
       </c>
       <c r="K13">
-        <v>1.045553963063164</v>
+        <v>1.023255057302532</v>
       </c>
       <c r="L13">
-        <v>1.035785509012076</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.048549880280384</v>
+        <v>1.030720537566059</v>
       </c>
       <c r="N13">
-        <v>1.042823882542317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007894889112515</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03398229964511</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027581122247224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013210957360995</v>
+        <v>0.981686113197989</v>
       </c>
       <c r="D14">
-        <v>1.031849080985255</v>
+        <v>1.008803948226747</v>
       </c>
       <c r="E14">
-        <v>1.02196738553752</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.034991444928671</v>
+        <v>1.016901925123622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051526471643676</v>
+        <v>1.041096436083538</v>
       </c>
       <c r="J14">
-        <v>1.042079172871937</v>
+        <v>1.011877903999554</v>
       </c>
       <c r="K14">
-        <v>1.046210582304575</v>
+        <v>1.023578476795722</v>
       </c>
       <c r="L14">
-        <v>1.036503030193793</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.049298470284721</v>
+        <v>1.031528543563036</v>
       </c>
       <c r="N14">
-        <v>1.043559044825567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00804173953037</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034795024972865</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02781123374334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01387031103176</v>
+        <v>0.9820929225370465</v>
       </c>
       <c r="D15">
-        <v>1.032345466223595</v>
+        <v>1.009060029498716</v>
       </c>
       <c r="E15">
-        <v>1.022503455615731</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.03554493521743</v>
+        <v>1.017279072200251</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051763175636101</v>
+        <v>1.041172319948315</v>
       </c>
       <c r="J15">
-        <v>1.042529569863497</v>
+        <v>1.012074381886555</v>
       </c>
       <c r="K15">
-        <v>1.046613441503342</v>
+        <v>1.023742096107639</v>
       </c>
       <c r="L15">
-        <v>1.036943469295216</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.04975789393153</v>
+        <v>1.03181216516878</v>
       </c>
       <c r="N15">
-        <v>1.044010081432516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008110861148605</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035056865443162</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027932850368074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017667236584708</v>
+        <v>0.984271005020153</v>
       </c>
       <c r="D16">
-        <v>1.03520624750182</v>
+        <v>1.01040201092206</v>
       </c>
       <c r="E16">
-        <v>1.025595747157551</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.038736277368165</v>
+        <v>1.018745181641336</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053123538912153</v>
+        <v>1.041503346245067</v>
       </c>
       <c r="J16">
-        <v>1.045122416115934</v>
+        <v>1.013044049240457</v>
       </c>
       <c r="K16">
-        <v>1.048932763754306</v>
+        <v>1.024549826123545</v>
       </c>
       <c r="L16">
-        <v>1.039482378040144</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.052404938092224</v>
+        <v>1.032748329032183</v>
       </c>
       <c r="N16">
-        <v>1.046606609824035</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008432558310104</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035757948968794</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028507156020381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020014049969363</v>
+        <v>0.98555851931558</v>
       </c>
       <c r="D17">
-        <v>1.036976400211103</v>
+        <v>1.011187489668393</v>
       </c>
       <c r="E17">
-        <v>1.027511590692761</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.040712243529974</v>
+        <v>1.019361859781175</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053961930004214</v>
+        <v>1.041666495690514</v>
       </c>
       <c r="J17">
-        <v>1.046724264514456</v>
+        <v>1.013583201936542</v>
       </c>
       <c r="K17">
-        <v>1.050365739392887</v>
+        <v>1.025002164455015</v>
       </c>
       <c r="L17">
-        <v>1.041053844975186</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.05404220617302</v>
+        <v>1.033038713599287</v>
       </c>
       <c r="N17">
-        <v>1.048210733031018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008603293854977</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035857930851552</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028829597920853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021370725814018</v>
+        <v>0.9861788677739793</v>
       </c>
       <c r="D18">
-        <v>1.038000385045154</v>
+        <v>1.011543775905578</v>
       </c>
       <c r="E18">
-        <v>1.028620726617329</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.041855744455538</v>
+        <v>1.019194307457384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054445706168684</v>
+        <v>1.041683595653442</v>
       </c>
       <c r="J18">
-        <v>1.047649993794668</v>
+        <v>1.013774384939763</v>
       </c>
       <c r="K18">
-        <v>1.051193908323087</v>
+        <v>1.025166179990168</v>
       </c>
       <c r="L18">
-        <v>1.04196306311578</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.05498909339886</v>
+        <v>1.032689747830891</v>
       </c>
       <c r="N18">
-        <v>1.04913777695299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008649693293599</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035343249814323</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028933811621137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021831287409146</v>
+        <v>0.9861852617264577</v>
       </c>
       <c r="D19">
-        <v>1.038348116575822</v>
+        <v>1.011512421196902</v>
       </c>
       <c r="E19">
-        <v>1.028997521906843</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.04224413987189</v>
+        <v>1.018261662529968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054609784556105</v>
+        <v>1.041565455846921</v>
       </c>
       <c r="J19">
-        <v>1.047964207895137</v>
+        <v>1.013642781569483</v>
       </c>
       <c r="K19">
-        <v>1.051475013301804</v>
+        <v>1.025071856865704</v>
       </c>
       <c r="L19">
-        <v>1.042271849439924</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.055310605008339</v>
+        <v>1.031709554826142</v>
       </c>
       <c r="N19">
-        <v>1.049452437273523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008583538706749</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034240776820479</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028873579897801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019763527705408</v>
+        <v>0.9844582596105607</v>
       </c>
       <c r="D20">
-        <v>1.03678736599174</v>
+        <v>1.010371881934171</v>
       </c>
       <c r="E20">
-        <v>1.027306907484055</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.040501182950428</v>
+        <v>1.015287648623475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053872523910967</v>
+        <v>1.041067750989747</v>
       </c>
       <c r="J20">
-        <v>1.046553296665366</v>
+        <v>1.012601720637829</v>
       </c>
       <c r="K20">
-        <v>1.050212792003955</v>
+        <v>1.024234773520843</v>
       </c>
       <c r="L20">
-        <v>1.040886010880093</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.053867386275437</v>
+        <v>1.029066906125386</v>
       </c>
       <c r="N20">
-        <v>1.048039522387972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008199420727964</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031618072347988</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028285675988079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012895089976967</v>
+        <v>0.9803640433152523</v>
       </c>
       <c r="D21">
-        <v>1.031611327163131</v>
+        <v>1.007831840562165</v>
       </c>
       <c r="E21">
-        <v>1.021710673942468</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.0347263653561</v>
+        <v>1.0120927274534</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051413029507565</v>
+        <v>1.040382924377474</v>
       </c>
       <c r="J21">
-        <v>1.041863394101088</v>
+        <v>1.010706311411443</v>
       </c>
       <c r="K21">
-        <v>1.046017580961206</v>
+        <v>1.022666340076646</v>
       </c>
       <c r="L21">
-        <v>1.036292083029722</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.049078407158883</v>
+        <v>1.02684856484595</v>
       </c>
       <c r="N21">
-        <v>1.043342959624113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007557621017507</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029821148109161</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027179967940392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008458161488853</v>
+        <v>0.9777610915662075</v>
       </c>
       <c r="D22">
-        <v>1.028274583048953</v>
+        <v>1.006219572049246</v>
       </c>
       <c r="E22">
-        <v>1.018111235610392</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.031007850655933</v>
+        <v>1.010160344176501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049816393666093</v>
+        <v>1.039946423295276</v>
       </c>
       <c r="J22">
-        <v>1.038831554564129</v>
+        <v>1.009509384542795</v>
       </c>
       <c r="K22">
-        <v>1.043305980956273</v>
+        <v>1.021668816769822</v>
       </c>
       <c r="L22">
-        <v>1.033332245649953</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.045989085923975</v>
+        <v>1.0255331744731</v>
       </c>
       <c r="N22">
-        <v>1.040306814527255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007153098003165</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02878008831166</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026461013510911</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010821936054545</v>
+        <v>0.9791374611110645</v>
       </c>
       <c r="D23">
-        <v>1.0300515487425</v>
+        <v>1.007065661351009</v>
       </c>
       <c r="E23">
-        <v>1.020027320698812</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.032987727694783</v>
+        <v>1.011183556263183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05066771771725</v>
+        <v>1.04017460586174</v>
       </c>
       <c r="J23">
-        <v>1.04044695423814</v>
+        <v>1.010138390741736</v>
       </c>
       <c r="K23">
-        <v>1.044750705229311</v>
+        <v>1.022188834417044</v>
       </c>
       <c r="L23">
-        <v>1.034908331386064</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.047634484909428</v>
+        <v>1.02622891597227</v>
       </c>
       <c r="N23">
-        <v>1.041924508254092</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007364903589725</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029330729988778</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026818960999411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019876765482943</v>
+        <v>0.9844702484538903</v>
       </c>
       <c r="D24">
-        <v>1.036872808674189</v>
+        <v>1.010363687695486</v>
       </c>
       <c r="E24">
-        <v>1.027399420738964</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.040596580033897</v>
+        <v>1.015161933726729</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053912938847252</v>
+        <v>1.041045237101577</v>
       </c>
       <c r="J24">
-        <v>1.046630576200172</v>
+        <v>1.012579493136097</v>
       </c>
       <c r="K24">
-        <v>1.050281925970554</v>
+        <v>1.024211217318182</v>
       </c>
       <c r="L24">
-        <v>1.04096187067575</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.053946404848967</v>
+        <v>1.028927919682281</v>
       </c>
       <c r="N24">
-        <v>1.048116911668581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008188188216389</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03146684095971</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028241333421662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029910164925275</v>
+        <v>0.9904644295130905</v>
       </c>
       <c r="D25">
-        <v>1.044456814063427</v>
+        <v>1.014089339227505</v>
       </c>
       <c r="E25">
-        <v>1.035629430984967</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.049073912952398</v>
+        <v>1.019667749779256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057474410231048</v>
+        <v>1.041983050733098</v>
       </c>
       <c r="J25">
-        <v>1.053471221644974</v>
+        <v>1.015317020925158</v>
       </c>
       <c r="K25">
-        <v>1.05640208026961</v>
+        <v>1.026472803819107</v>
       </c>
       <c r="L25">
-        <v>1.047698724071931</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.060955355494688</v>
+        <v>1.031968232868704</v>
       </c>
       <c r="N25">
-        <v>1.054967271614548</v>
+        <v>1.009111324155658</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033873071519225</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029837533085089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9950765890567087</v>
+        <v>0.9955612800227464</v>
       </c>
       <c r="D2">
-        <v>1.016951339531391</v>
+        <v>1.017178113492597</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.023166690349504</v>
+        <v>1.02335674808567</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042660039198274</v>
+        <v>1.042760644875592</v>
       </c>
       <c r="J2">
-        <v>1.017405562365749</v>
+        <v>1.017875567847671</v>
       </c>
       <c r="K2">
-        <v>1.028179460557702</v>
+        <v>1.028403206965004</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.034312442058647</v>
+        <v>1.03450000080795</v>
       </c>
       <c r="N2">
-        <v>1.009813476194188</v>
+        <v>1.012014706277663</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035728370743135</v>
+        <v>1.035876811893482</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030995462369037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031162535525719</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019713445642502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9983596090891349</v>
+        <v>0.9987338868445618</v>
       </c>
       <c r="D3">
-        <v>1.019005398514641</v>
+        <v>1.019093660152665</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.025667255288075</v>
+        <v>1.02580761178825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04312761324191</v>
+        <v>1.043170771702484</v>
       </c>
       <c r="J3">
-        <v>1.018895092926565</v>
+        <v>1.019259126991021</v>
       </c>
       <c r="K3">
-        <v>1.029400742458236</v>
+        <v>1.029487926666235</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.035981923263311</v>
+        <v>1.036120594014018</v>
       </c>
       <c r="N3">
-        <v>1.010315319827795</v>
+        <v>1.012385371598584</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037049660774264</v>
+        <v>1.037159409896054</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03185633856867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031926572777911</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019903213510858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000449271505669</v>
+        <v>1.000754017470125</v>
       </c>
       <c r="D4">
-        <v>1.020316075355563</v>
+        <v>1.020316648513137</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.027264870081697</v>
+        <v>1.027373927514438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043415778939381</v>
+        <v>1.043422526571887</v>
       </c>
       <c r="J4">
-        <v>1.019841491850105</v>
+        <v>1.020138455050503</v>
       </c>
       <c r="K4">
-        <v>1.030175333990306</v>
+        <v>1.030175900566426</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.03704500226346</v>
+        <v>1.037152828364173</v>
       </c>
       <c r="N4">
-        <v>1.010634148197461</v>
+        <v>1.012620963409161</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037891020081636</v>
+        <v>1.03797635751608</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032404956488792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032414025653704</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020021143879763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001322378382044</v>
+        <v>1.00159824084683</v>
       </c>
       <c r="D5">
-        <v>1.020866560578423</v>
+        <v>1.020830644484285</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.027932983254772</v>
+        <v>1.028029041701663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043535172801374</v>
+        <v>1.043526755536239</v>
       </c>
       <c r="J5">
-        <v>1.020237898287208</v>
+        <v>1.020506923832058</v>
       </c>
       <c r="K5">
-        <v>1.03050104755165</v>
+        <v>1.0304655330622</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.037489126126031</v>
+        <v>1.037584128707387</v>
       </c>
       <c r="N5">
-        <v>1.010767896038292</v>
+        <v>1.012719855378921</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038242515533066</v>
+        <v>1.038317703938973</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032642509771313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0326267763362</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020070642196344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001471787577503</v>
+        <v>1.001742712969168</v>
       </c>
       <c r="D6">
-        <v>1.02096336483255</v>
+        <v>1.020921255353318</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.028046412960214</v>
+        <v>1.028140252395985</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043557044217484</v>
+        <v>1.043546047784027</v>
       </c>
       <c r="J6">
-        <v>1.020307417335564</v>
+        <v>1.020571662320788</v>
       </c>
       <c r="K6">
-        <v>1.030560097298326</v>
+        <v>1.030518456551747</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.037564973122663</v>
+        <v>1.037657785774106</v>
       </c>
       <c r="N6">
-        <v>1.010791608815362</v>
+        <v>1.012737434912681</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038302543531765</v>
+        <v>1.038375998743539</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032693095366662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032673897853254</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020080189257646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000469771857275</v>
+        <v>1.000781606197167</v>
       </c>
       <c r="D7">
-        <v>1.020335842234432</v>
+        <v>1.020340971875282</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027277917843507</v>
+        <v>1.027390040431906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043422814043437</v>
+        <v>1.043431651290561</v>
       </c>
       <c r="J7">
-        <v>1.01985538215902</v>
+        <v>1.02015925614098</v>
       </c>
       <c r="K7">
-        <v>1.030191952686115</v>
+        <v>1.030197023447161</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.037055007881925</v>
+        <v>1.03716586499729</v>
       </c>
       <c r="N7">
-        <v>1.010639535988814</v>
+        <v>1.012652968326799</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037898938886549</v>
+        <v>1.037986675173327</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032437019693299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032451270159744</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020026798536435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9962043508851405</v>
+        <v>0.9966748783411722</v>
       </c>
       <c r="D8">
-        <v>1.017664669438989</v>
+        <v>1.017860282500272</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.024021157292057</v>
+        <v>1.024204507569728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042827760552461</v>
+        <v>1.04291610534049</v>
       </c>
       <c r="J8">
-        <v>1.01792323271856</v>
+        <v>1.018379976967277</v>
       </c>
       <c r="K8">
-        <v>1.028610561954157</v>
+        <v>1.02880363983553</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.034885287929372</v>
+        <v>1.035066298634393</v>
       </c>
       <c r="N8">
-        <v>1.009988811003288</v>
+        <v>1.012229189819865</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036181742724175</v>
+        <v>1.036325001411374</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031323430873636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031471082353012</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019787538691527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9883982921136261</v>
+        <v>0.9891395826035713</v>
       </c>
       <c r="D9">
-        <v>1.012792808385857</v>
+        <v>1.013323046565879</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.018114363772214</v>
+        <v>1.018419644906828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04165901377895</v>
+        <v>1.04188602334946</v>
       </c>
       <c r="J9">
-        <v>1.01436749512074</v>
+        <v>1.015081766593788</v>
       </c>
       <c r="K9">
-        <v>1.025681685750357</v>
+        <v>1.026203602584933</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.030920228869952</v>
+        <v>1.031220781457225</v>
       </c>
       <c r="N9">
-        <v>1.008789934472104</v>
+        <v>1.011354536340331</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033043638412671</v>
+        <v>1.033281508088199</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029249277717834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029629164870818</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01931775837758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9830506376359766</v>
+        <v>0.9840150911682789</v>
       </c>
       <c r="D10">
-        <v>1.009486008648114</v>
+        <v>1.010270283555954</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.014277922418203</v>
+        <v>1.014683230348041</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040836929358984</v>
+        <v>1.041169773278123</v>
       </c>
       <c r="J10">
-        <v>1.011953251745065</v>
+        <v>1.012877593572188</v>
       </c>
       <c r="K10">
-        <v>1.023686076781475</v>
+        <v>1.024456548176728</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.028394082613448</v>
+        <v>1.02879234052717</v>
       </c>
       <c r="N10">
-        <v>1.007979491102306</v>
+        <v>1.01088348002167</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031096242510133</v>
+        <v>1.031411421060358</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027855216763856</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028412526311117</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018996436962718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9811189935376361</v>
+        <v>0.9822056934276354</v>
       </c>
       <c r="D11">
-        <v>1.008364555454492</v>
+        <v>1.009262945797532</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.014285446471811</v>
+        <v>1.014743347023382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040723144064941</v>
+        <v>1.041102994214046</v>
       </c>
       <c r="J11">
-        <v>1.011298899879308</v>
+        <v>1.012337941412982</v>
       </c>
       <c r="K11">
-        <v>1.023130433869789</v>
+        <v>1.02401226546344</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.028942896606867</v>
+        <v>1.029392480273893</v>
       </c>
       <c r="N11">
-        <v>1.007789188749079</v>
+        <v>1.010989245036944</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031970079783038</v>
+        <v>1.032325695242287</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027495525593052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028134781054332</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018946092362192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9805295917612027</v>
+        <v>0.9816558208151885</v>
       </c>
       <c r="D12">
-        <v>1.008043025410913</v>
+        <v>1.008974894052337</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.014860312533373</v>
+        <v>1.015334256233139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040759283642164</v>
+        <v>1.041151923926715</v>
       </c>
       <c r="J12">
-        <v>1.011181460173992</v>
+        <v>1.012257353762897</v>
       </c>
       <c r="K12">
-        <v>1.023017739131589</v>
+        <v>1.023932145786433</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.029708244720387</v>
+        <v>1.030173456928872</v>
       </c>
       <c r="N12">
-        <v>1.007773024076682</v>
+        <v>1.011085993480859</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032903852190005</v>
+        <v>1.033271703563206</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02741584524955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02807813407318</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018951827765481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9809440268857326</v>
+        <v>0.9820370311784221</v>
       </c>
       <c r="D13">
-        <v>1.008329214864985</v>
+        <v>1.009226440342303</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.015935428091179</v>
+        <v>1.01639333467952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040924507603901</v>
+        <v>1.041301088596342</v>
       </c>
       <c r="J13">
-        <v>1.011481691953408</v>
+        <v>1.01252608180328</v>
       </c>
       <c r="K13">
-        <v>1.023255057302532</v>
+        <v>1.024135537984063</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.030720537566059</v>
+        <v>1.031170059323225</v>
       </c>
       <c r="N13">
-        <v>1.007894889112515</v>
+        <v>1.01114998164541</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03398229964511</v>
+        <v>1.034337654206066</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027581122247224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028219178641757</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019004819843664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.981686113197989</v>
+        <v>0.982723686188763</v>
       </c>
       <c r="D14">
-        <v>1.008803948226747</v>
+        <v>1.009646853456075</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.016901925123622</v>
+        <v>1.017334586977277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041096436083538</v>
+        <v>1.041449249112488</v>
       </c>
       <c r="J14">
-        <v>1.011877903999554</v>
+        <v>1.012869979720039</v>
       </c>
       <c r="K14">
-        <v>1.023578476795722</v>
+        <v>1.024405842145689</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.031528543563036</v>
+        <v>1.031953388966754</v>
       </c>
       <c r="N14">
-        <v>1.00804173953037</v>
+        <v>1.011180451653004</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034795024972865</v>
+        <v>1.035130826866696</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02781123374334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028411869053119</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019063243056797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9820929225370465</v>
+        <v>0.9831015703513593</v>
       </c>
       <c r="D15">
-        <v>1.009060029498716</v>
+        <v>1.009874994609103</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.017279072200251</v>
+        <v>1.017698819248501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041172319948315</v>
+        <v>1.041513207014833</v>
       </c>
       <c r="J15">
-        <v>1.012074381886555</v>
+        <v>1.013039182918192</v>
       </c>
       <c r="K15">
-        <v>1.023742096107639</v>
+        <v>1.024542148630407</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.03181216516878</v>
+        <v>1.032224388009574</v>
       </c>
       <c r="N15">
-        <v>1.008110861148605</v>
+        <v>1.011186190110495</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035056865443162</v>
+        <v>1.035382681729766</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027932850368074</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028514741951563</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019090291667478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.984271005020153</v>
+        <v>0.9851394774148118</v>
       </c>
       <c r="D16">
-        <v>1.01040201092206</v>
+        <v>1.011080355396594</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.018745181641336</v>
+        <v>1.019103234150631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041503346245067</v>
+        <v>1.04178720067763</v>
       </c>
       <c r="J16">
-        <v>1.013044049240457</v>
+        <v>1.013876639730181</v>
       </c>
       <c r="K16">
-        <v>1.024549826123545</v>
+        <v>1.025216292824794</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.032748329032183</v>
+        <v>1.033100241536269</v>
       </c>
       <c r="N16">
-        <v>1.008432558310104</v>
+        <v>1.011200458017282</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035757948968794</v>
+        <v>1.036036104573817</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028507156020381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028994894497093</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019212004600967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.98555851931558</v>
+        <v>0.9863571415514008</v>
       </c>
       <c r="D17">
-        <v>1.011187489668393</v>
+        <v>1.011795245488201</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.019361859781175</v>
+        <v>1.019689478855424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041666495690514</v>
+        <v>1.041921336521983</v>
       </c>
       <c r="J17">
-        <v>1.013583201936542</v>
+        <v>1.014349881851488</v>
       </c>
       <c r="K17">
-        <v>1.025002164455015</v>
+        <v>1.025599574487197</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.033038713599287</v>
+        <v>1.033360868303917</v>
       </c>
       <c r="N17">
-        <v>1.008603293854977</v>
+        <v>1.01122523497579</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035857930851552</v>
+        <v>1.036112591034497</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028829597920853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029268756658185</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019276118785363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9861788677739793</v>
+        <v>0.9869517024550277</v>
       </c>
       <c r="D18">
-        <v>1.011543775905578</v>
+        <v>1.012125025971246</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.019194307457384</v>
+        <v>1.019511190269261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041683595653442</v>
+        <v>1.041928143604891</v>
       </c>
       <c r="J18">
-        <v>1.013774384939763</v>
+        <v>1.01451688629062</v>
       </c>
       <c r="K18">
-        <v>1.025166179990168</v>
+        <v>1.025737697144593</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.032689747830891</v>
+        <v>1.033001424694588</v>
       </c>
       <c r="N18">
-        <v>1.008649693293599</v>
+        <v>1.01121585488561</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035343249814323</v>
+        <v>1.035589679113655</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028933811621137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029353529581104</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019288317377814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9861852617264577</v>
+        <v>0.9869666899344145</v>
       </c>
       <c r="D19">
-        <v>1.011512421196902</v>
+        <v>1.012103881707287</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.018261662529968</v>
+        <v>1.018583340814589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041565455846921</v>
+        <v>1.041815245009823</v>
       </c>
       <c r="J19">
-        <v>1.013642781569483</v>
+        <v>1.014393720136546</v>
       </c>
       <c r="K19">
-        <v>1.025071856865704</v>
+        <v>1.025653465827792</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.031709554826142</v>
+        <v>1.032025964242442</v>
       </c>
       <c r="N19">
-        <v>1.008583538706749</v>
+        <v>1.011155383961903</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034240776820479</v>
+        <v>1.034491030599003</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028873579897801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029301056687537</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019254243638106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9844582596105607</v>
+        <v>0.9853417215972224</v>
       </c>
       <c r="D20">
-        <v>1.010371881934171</v>
+        <v>1.011074119250045</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.015287648623475</v>
+        <v>1.015656757654924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041067750989747</v>
+        <v>1.041365716536965</v>
       </c>
       <c r="J20">
-        <v>1.012601720637829</v>
+        <v>1.013449628345217</v>
       </c>
       <c r="K20">
-        <v>1.024234773520843</v>
+        <v>1.0249249990439</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.029066906125386</v>
+        <v>1.029429777502246</v>
       </c>
       <c r="N20">
-        <v>1.008199420727964</v>
+        <v>1.010939470150651</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031618072347988</v>
+        <v>1.031905249770685</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028285675988079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02879034001937</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019085329925275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9803640433152523</v>
+        <v>0.9815288069248492</v>
       </c>
       <c r="D21">
-        <v>1.007831840562165</v>
+        <v>1.008806622848352</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.0120927274534</v>
+        <v>1.012588249506477</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040382924377474</v>
+        <v>1.040797851763039</v>
       </c>
       <c r="J21">
-        <v>1.010706311411443</v>
+        <v>1.011819628628185</v>
       </c>
       <c r="K21">
-        <v>1.022666340076646</v>
+        <v>1.023623050043401</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02684856484595</v>
+        <v>1.027334994810942</v>
       </c>
       <c r="N21">
-        <v>1.007557621017507</v>
+        <v>1.010917972942085</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029821148109161</v>
+        <v>1.030206130521934</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027179967940392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027873377626515</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018842831892639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9777610915662075</v>
+        <v>0.9791038308444131</v>
       </c>
       <c r="D22">
-        <v>1.006219572049246</v>
+        <v>1.007367187440481</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.010160344176501</v>
+        <v>1.010736380880919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039946423295276</v>
+        <v>1.040435645084804</v>
       </c>
       <c r="J22">
-        <v>1.009509384542795</v>
+        <v>1.010789387107</v>
       </c>
       <c r="K22">
-        <v>1.021668816769822</v>
+        <v>1.022794098172854</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.0255331744731</v>
+        <v>1.026098106784753</v>
       </c>
       <c r="N22">
-        <v>1.007153098003165</v>
+        <v>1.010898887233875</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02878008831166</v>
+        <v>1.029227201642129</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026461013510911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027272315814712</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01868662529245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9791374611110645</v>
+        <v>0.9803732606067133</v>
       </c>
       <c r="D23">
-        <v>1.007065661351009</v>
+        <v>1.008112709158799</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.011183556263183</v>
+        <v>1.011711150382457</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04017460586174</v>
+        <v>1.040620337922215</v>
       </c>
       <c r="J23">
-        <v>1.010138390741736</v>
+        <v>1.011318131528763</v>
       </c>
       <c r="K23">
-        <v>1.022188834417044</v>
+        <v>1.023216018010835</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.02622891597227</v>
+        <v>1.026746600245268</v>
       </c>
       <c r="N23">
-        <v>1.007364903589725</v>
+        <v>1.010864235456436</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029330729988778</v>
+        <v>1.029740448740299</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026818960999411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027559962170994</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018764352015563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9844702484538903</v>
+        <v>0.9853540036605154</v>
       </c>
       <c r="D24">
-        <v>1.010363687695486</v>
+        <v>1.011066411189517</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.015161933726729</v>
+        <v>1.015531336395782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041045237101577</v>
+        <v>1.041343585239007</v>
       </c>
       <c r="J24">
-        <v>1.012579493136097</v>
+        <v>1.013427733668712</v>
       </c>
       <c r="K24">
-        <v>1.024211217318182</v>
+        <v>1.024901935909843</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.028927919682281</v>
+        <v>1.029291085757992</v>
       </c>
       <c r="N24">
-        <v>1.008188188216389</v>
+        <v>1.010926847841939</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03146684095971</v>
+        <v>1.031754266162047</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028241333421662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028743678733086</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019076374077616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9904644295130905</v>
+        <v>0.9911236630187709</v>
       </c>
       <c r="D25">
-        <v>1.014089339227505</v>
+        <v>1.014524099231401</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.019667749779256</v>
+        <v>1.019936193639607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041983050733098</v>
+        <v>1.042170213136713</v>
       </c>
       <c r="J25">
-        <v>1.015317020925158</v>
+        <v>1.015953488898758</v>
       </c>
       <c r="K25">
-        <v>1.026472803819107</v>
+        <v>1.026901054844711</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.031968232868704</v>
+        <v>1.032232712580736</v>
       </c>
       <c r="N25">
-        <v>1.009111324155658</v>
+        <v>1.011556244108456</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033873071519225</v>
+        <v>1.034082391395258</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029837533085089</v>
+        <v>1.030153990654449</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019447344117266</v>
       </c>
     </row>
   </sheetData>
